--- a/state_results/Rivers/TutaenuiStreamatdsMartonSTP_cb7475328f.xlsx
+++ b/state_results/Rivers/TutaenuiStreamatdsMartonSTP_cb7475328f.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U166"/>
+  <dimension ref="A1:U182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,7 +651,7 @@
         <v>0.076</v>
       </c>
       <c r="G3" t="n">
-        <v>1.00001746577661</v>
+        <v>1.00002300652815</v>
       </c>
       <c r="H3" t="n">
         <v>5.358</v>
@@ -732,7 +732,7 @@
         <v>0.076</v>
       </c>
       <c r="G4" t="n">
-        <v>1.00001746577661</v>
+        <v>1.00002300652815</v>
       </c>
       <c r="H4" t="n">
         <v>5.358</v>
@@ -1153,7 +1153,7 @@
         <v>0.05518</v>
       </c>
       <c r="G9" t="n">
-        <v>2.08680563817124</v>
+        <v>2.08680537211842</v>
       </c>
       <c r="H9" t="n">
         <v>19.1575234354967</v>
@@ -1234,7 +1234,7 @@
         <v>0.05518</v>
       </c>
       <c r="G10" t="n">
-        <v>2.08680563817124</v>
+        <v>2.08680537211842</v>
       </c>
       <c r="H10" t="n">
         <v>19.1575234354967</v>
@@ -1315,7 +1315,7 @@
         <v>1.52145</v>
       </c>
       <c r="G11" t="n">
-        <v>2.89522498547395</v>
+        <v>2.89530734800615</v>
       </c>
       <c r="H11" t="n">
         <v>16</v>
@@ -1396,7 +1396,7 @@
         <v>1.52145</v>
       </c>
       <c r="G12" t="n">
-        <v>2.89522498547395</v>
+        <v>2.89530734800615</v>
       </c>
       <c r="H12" t="n">
         <v>16</v>
@@ -1473,7 +1473,7 @@
         <v>2.2705</v>
       </c>
       <c r="G13" t="n">
-        <v>5.35608620689655</v>
+        <v>5.35608965517241</v>
       </c>
       <c r="H13" t="n">
         <v>27.968</v>
@@ -1484,10 +1484,10 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>2.422</v>
+        <v>2.4216</v>
       </c>
       <c r="M13" t="n">
-        <v>11.89152</v>
+        <v>11.89165</v>
       </c>
       <c r="N13" t="n">
         <v>16.2702</v>
@@ -1550,7 +1550,7 @@
         <v>2.2705</v>
       </c>
       <c r="G14" t="n">
-        <v>5.35608620689655</v>
+        <v>5.35608965517241</v>
       </c>
       <c r="H14" t="n">
         <v>27.968</v>
@@ -1561,10 +1561,10 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>2.422</v>
+        <v>2.4216</v>
       </c>
       <c r="M14" t="n">
-        <v>11.89152</v>
+        <v>11.89165</v>
       </c>
       <c r="N14" t="n">
         <v>16.2702</v>
@@ -2020,7 +2020,7 @@
         <v>0.247</v>
       </c>
       <c r="G20" t="n">
-        <v>1.37160367267316</v>
+        <v>1.3716092134247</v>
       </c>
       <c r="H20" t="n">
         <v>5.358</v>
@@ -2101,7 +2101,7 @@
         <v>0.247</v>
       </c>
       <c r="G21" t="n">
-        <v>1.37160367267316</v>
+        <v>1.3716092134247</v>
       </c>
       <c r="H21" t="n">
         <v>5.358</v>
@@ -2522,7 +2522,7 @@
         <v>0.25028</v>
       </c>
       <c r="G26" t="n">
-        <v>2.65671896622984</v>
+        <v>2.65671912394739</v>
       </c>
       <c r="H26" t="n">
         <v>19.1575234354967</v>
@@ -2603,7 +2603,7 @@
         <v>0.25028</v>
       </c>
       <c r="G27" t="n">
-        <v>2.65671896622984</v>
+        <v>2.65671912394739</v>
       </c>
       <c r="H27" t="n">
         <v>19.1575234354967</v>
@@ -2684,7 +2684,7 @@
         <v>1.52145</v>
       </c>
       <c r="G28" t="n">
-        <v>2.57543274659913</v>
+        <v>2.57550090869474</v>
       </c>
       <c r="H28" t="n">
         <v>16</v>
@@ -2765,7 +2765,7 @@
         <v>1.52145</v>
       </c>
       <c r="G29" t="n">
-        <v>2.57543274659913</v>
+        <v>2.57550090869474</v>
       </c>
       <c r="H29" t="n">
         <v>16</v>
@@ -2839,16 +2839,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.9245</v>
+        <v>2.9246</v>
       </c>
       <c r="G30" t="n">
-        <v>6.52520689655172</v>
+        <v>6.5252275862069</v>
       </c>
       <c r="H30" t="n">
         <v>31.726</v>
       </c>
       <c r="I30" t="n">
-        <v>25.5912</v>
+        <v>25.59138</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
         <v>2.545</v>
       </c>
       <c r="M30" t="n">
-        <v>14.02296</v>
+        <v>14.02292</v>
       </c>
       <c r="N30" t="n">
         <v>21.2852</v>
@@ -2916,16 +2916,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.9245</v>
+        <v>2.9246</v>
       </c>
       <c r="G31" t="n">
-        <v>6.52520689655172</v>
+        <v>6.5252275862069</v>
       </c>
       <c r="H31" t="n">
         <v>31.726</v>
       </c>
       <c r="I31" t="n">
-        <v>25.5912</v>
+        <v>25.59138</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -2933,7 +2933,7 @@
         <v>2.545</v>
       </c>
       <c r="M31" t="n">
-        <v>14.02296</v>
+        <v>14.02292</v>
       </c>
       <c r="N31" t="n">
         <v>21.2852</v>
@@ -3389,7 +3389,7 @@
         <v>0.6205000000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>1.68438355025072</v>
+        <v>1.68438890631055</v>
       </c>
       <c r="H37" t="n">
         <v>7.04</v>
@@ -3470,7 +3470,7 @@
         <v>0.6205000000000001</v>
       </c>
       <c r="G38" t="n">
-        <v>1.68438355025072</v>
+        <v>1.68438890631055</v>
       </c>
       <c r="H38" t="n">
         <v>7.04</v>
@@ -3551,13 +3551,13 @@
         <v>682.5</v>
       </c>
       <c r="G39" t="n">
-        <v>5058.96996093921</v>
+        <v>4910.26357783953</v>
       </c>
       <c r="H39" t="n">
         <v>104620</v>
       </c>
       <c r="I39" t="n">
-        <v>26519.59883</v>
+        <v>23695</v>
       </c>
       <c r="J39" t="n">
         <v>60</v>
@@ -3572,7 +3572,7 @@
         <v>2580.4</v>
       </c>
       <c r="N39" t="n">
-        <v>12152.6</v>
+        <v>9861.370269999999</v>
       </c>
       <c r="O39" t="n">
         <v>1803578.705</v>
@@ -3636,13 +3636,13 @@
         <v>682.5</v>
       </c>
       <c r="G40" t="n">
-        <v>5058.96996093921</v>
+        <v>4910.26357783953</v>
       </c>
       <c r="H40" t="n">
         <v>104620</v>
       </c>
       <c r="I40" t="n">
-        <v>26519.59883</v>
+        <v>23695</v>
       </c>
       <c r="J40" t="n">
         <v>60</v>
@@ -3657,7 +3657,7 @@
         <v>2580.4</v>
       </c>
       <c r="N40" t="n">
-        <v>12152.6</v>
+        <v>9861.370269999999</v>
       </c>
       <c r="O40" t="n">
         <v>1803578.705</v>
@@ -3721,13 +3721,13 @@
         <v>682.5</v>
       </c>
       <c r="G41" t="n">
-        <v>5058.96996093921</v>
+        <v>4910.26357783953</v>
       </c>
       <c r="H41" t="n">
         <v>104620</v>
       </c>
       <c r="I41" t="n">
-        <v>26519.59883</v>
+        <v>23695</v>
       </c>
       <c r="J41" t="n">
         <v>60</v>
@@ -3742,7 +3742,7 @@
         <v>2580.4</v>
       </c>
       <c r="N41" t="n">
-        <v>12152.6</v>
+        <v>9861.370269999999</v>
       </c>
       <c r="O41" t="n">
         <v>1803578.705</v>
@@ -3806,13 +3806,13 @@
         <v>682.5</v>
       </c>
       <c r="G42" t="n">
-        <v>5058.96996093921</v>
+        <v>4910.26357783953</v>
       </c>
       <c r="H42" t="n">
         <v>104620</v>
       </c>
       <c r="I42" t="n">
-        <v>26519.59883</v>
+        <v>23695</v>
       </c>
       <c r="J42" t="n">
         <v>60</v>
@@ -3827,7 +3827,7 @@
         <v>2580.4</v>
       </c>
       <c r="N42" t="n">
-        <v>12152.6</v>
+        <v>9861.370269999999</v>
       </c>
       <c r="O42" t="n">
         <v>1803578.705</v>
@@ -3891,7 +3891,7 @@
         <v>0.61266</v>
       </c>
       <c r="G43" t="n">
-        <v>2.74432910422633</v>
+        <v>2.74432947834345</v>
       </c>
       <c r="H43" t="n">
         <v>19.1575234354967</v>
@@ -3972,7 +3972,7 @@
         <v>0.61266</v>
       </c>
       <c r="G44" t="n">
-        <v>2.74432910422633</v>
+        <v>2.74432947834345</v>
       </c>
       <c r="H44" t="n">
         <v>19.1575234354967</v>
@@ -4208,16 +4208,16 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>4.4045</v>
+        <v>4.40435</v>
       </c>
       <c r="G47" t="n">
-        <v>7.2116</v>
+        <v>7.211615</v>
       </c>
       <c r="H47" t="n">
         <v>31.726</v>
       </c>
       <c r="I47" t="n">
-        <v>25.2155</v>
+        <v>25.21565</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -4225,7 +4225,7 @@
         <v>2.7325</v>
       </c>
       <c r="M47" t="n">
-        <v>13.7802</v>
+        <v>13.78013</v>
       </c>
       <c r="N47" t="n">
         <v>20.354</v>
@@ -4285,16 +4285,16 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>4.4045</v>
+        <v>4.40435</v>
       </c>
       <c r="G48" t="n">
-        <v>7.2116</v>
+        <v>7.211615</v>
       </c>
       <c r="H48" t="n">
         <v>31.726</v>
       </c>
       <c r="I48" t="n">
-        <v>25.2155</v>
+        <v>25.21565</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -4302,7 +4302,7 @@
         <v>2.7325</v>
       </c>
       <c r="M48" t="n">
-        <v>13.7802</v>
+        <v>13.78013</v>
       </c>
       <c r="N48" t="n">
         <v>20.354</v>
@@ -4920,7 +4920,7 @@
         <v>740</v>
       </c>
       <c r="G56" t="n">
-        <v>6827.40329427254</v>
+        <v>6678.69691117286</v>
       </c>
       <c r="H56" t="n">
         <v>104620</v>
@@ -4941,7 +4941,7 @@
         <v>5350</v>
       </c>
       <c r="N56" t="n">
-        <v>22111.7593</v>
+        <v>20417</v>
       </c>
       <c r="O56" t="n">
         <v>1803578.705</v>
@@ -5005,7 +5005,7 @@
         <v>740</v>
       </c>
       <c r="G57" t="n">
-        <v>6827.40329427254</v>
+        <v>6678.69691117286</v>
       </c>
       <c r="H57" t="n">
         <v>104620</v>
@@ -5026,7 +5026,7 @@
         <v>5350</v>
       </c>
       <c r="N57" t="n">
-        <v>22111.7593</v>
+        <v>20417</v>
       </c>
       <c r="O57" t="n">
         <v>1803578.705</v>
@@ -5090,7 +5090,7 @@
         <v>740</v>
       </c>
       <c r="G58" t="n">
-        <v>6827.40329427254</v>
+        <v>6678.69691117286</v>
       </c>
       <c r="H58" t="n">
         <v>104620</v>
@@ -5111,7 +5111,7 @@
         <v>5350</v>
       </c>
       <c r="N58" t="n">
-        <v>22111.7593</v>
+        <v>20417</v>
       </c>
       <c r="O58" t="n">
         <v>1803578.705</v>
@@ -5175,7 +5175,7 @@
         <v>740</v>
       </c>
       <c r="G59" t="n">
-        <v>6827.40329427254</v>
+        <v>6678.69691117286</v>
       </c>
       <c r="H59" t="n">
         <v>104620</v>
@@ -5196,7 +5196,7 @@
         <v>5350</v>
       </c>
       <c r="N59" t="n">
-        <v>22111.7593</v>
+        <v>20417</v>
       </c>
       <c r="O59" t="n">
         <v>1803578.705</v>
@@ -5260,7 +5260,7 @@
         <v>0.65158</v>
       </c>
       <c r="G60" t="n">
-        <v>2.40651963997275</v>
+        <v>2.40651998582205</v>
       </c>
       <c r="H60" t="n">
         <v>19.1575234354967</v>
@@ -5341,7 +5341,7 @@
         <v>0.65158</v>
       </c>
       <c r="G61" t="n">
-        <v>2.40651963997275</v>
+        <v>2.40651998582205</v>
       </c>
       <c r="H61" t="n">
         <v>19.1575234354967</v>
@@ -5577,10 +5577,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>4.4045</v>
+        <v>4.40435</v>
       </c>
       <c r="G64" t="n">
-        <v>7.04795</v>
+        <v>7.047965</v>
       </c>
       <c r="H64" t="n">
         <v>31.726</v>
@@ -5594,7 +5594,7 @@
         <v>2.5725</v>
       </c>
       <c r="M64" t="n">
-        <v>13.5212</v>
+        <v>13.5211</v>
       </c>
       <c r="N64" t="n">
         <v>18.632</v>
@@ -5654,10 +5654,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>4.4045</v>
+        <v>4.40435</v>
       </c>
       <c r="G65" t="n">
-        <v>7.04795</v>
+        <v>7.047965</v>
       </c>
       <c r="H65" t="n">
         <v>31.726</v>
@@ -5671,7 +5671,7 @@
         <v>2.5725</v>
       </c>
       <c r="M65" t="n">
-        <v>13.5212</v>
+        <v>13.5211</v>
       </c>
       <c r="N65" t="n">
         <v>18.632</v>
@@ -6289,13 +6289,13 @@
         <v>630</v>
       </c>
       <c r="G73" t="n">
-        <v>3965.4171722559</v>
+        <v>3902.54544122432</v>
       </c>
       <c r="H73" t="n">
         <v>73000</v>
       </c>
       <c r="I73" t="n">
-        <v>19030.51517</v>
+        <v>20500</v>
       </c>
       <c r="J73" t="n">
         <v>60</v>
@@ -6310,7 +6310,7 @@
         <v>3595.6</v>
       </c>
       <c r="N73" t="n">
-        <v>16917</v>
+        <v>13973</v>
       </c>
       <c r="O73" t="n">
         <v>1803578.705</v>
@@ -6374,13 +6374,13 @@
         <v>630</v>
       </c>
       <c r="G74" t="n">
-        <v>3965.4171722559</v>
+        <v>3902.54544122432</v>
       </c>
       <c r="H74" t="n">
         <v>73000</v>
       </c>
       <c r="I74" t="n">
-        <v>19030.51517</v>
+        <v>20500</v>
       </c>
       <c r="J74" t="n">
         <v>60</v>
@@ -6395,7 +6395,7 @@
         <v>3595.6</v>
       </c>
       <c r="N74" t="n">
-        <v>16917</v>
+        <v>13973</v>
       </c>
       <c r="O74" t="n">
         <v>1803578.705</v>
@@ -6459,13 +6459,13 @@
         <v>630</v>
       </c>
       <c r="G75" t="n">
-        <v>3965.4171722559</v>
+        <v>3902.54544122432</v>
       </c>
       <c r="H75" t="n">
         <v>73000</v>
       </c>
       <c r="I75" t="n">
-        <v>19030.51517</v>
+        <v>20500</v>
       </c>
       <c r="J75" t="n">
         <v>60</v>
@@ -6480,7 +6480,7 @@
         <v>3595.6</v>
       </c>
       <c r="N75" t="n">
-        <v>16917</v>
+        <v>13973</v>
       </c>
       <c r="O75" t="n">
         <v>1803578.705</v>
@@ -6544,13 +6544,13 @@
         <v>630</v>
       </c>
       <c r="G76" t="n">
-        <v>3965.4171722559</v>
+        <v>3902.54544122432</v>
       </c>
       <c r="H76" t="n">
         <v>73000</v>
       </c>
       <c r="I76" t="n">
-        <v>19030.51517</v>
+        <v>20500</v>
       </c>
       <c r="J76" t="n">
         <v>60</v>
@@ -6565,7 +6565,7 @@
         <v>3595.6</v>
       </c>
       <c r="N76" t="n">
-        <v>16917</v>
+        <v>13973</v>
       </c>
       <c r="O76" t="n">
         <v>1803578.705</v>
@@ -6629,7 +6629,7 @@
         <v>0.53179</v>
       </c>
       <c r="G77" t="n">
-        <v>1.77224097422926</v>
+        <v>1.7722380311883</v>
       </c>
       <c r="H77" t="n">
         <v>19.1575234354967</v>
@@ -6710,7 +6710,7 @@
         <v>0.53179</v>
       </c>
       <c r="G78" t="n">
-        <v>1.77224097422926</v>
+        <v>1.7722380311883</v>
       </c>
       <c r="H78" t="n">
         <v>19.1575234354967</v>
@@ -6949,7 +6949,7 @@
         <v>3.9175</v>
       </c>
       <c r="G81" t="n">
-        <v>6.01723333333333</v>
+        <v>6.01724833333333</v>
       </c>
       <c r="H81" t="n">
         <v>31.726</v>
@@ -6960,13 +6960,13 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
-        <v>2.406</v>
+        <v>2.4058</v>
       </c>
       <c r="M81" t="n">
-        <v>10.5632</v>
+        <v>10.56351</v>
       </c>
       <c r="N81" t="n">
-        <v>14.6755</v>
+        <v>14.67554</v>
       </c>
       <c r="O81" t="n">
         <v>1803578.705</v>
@@ -7026,7 +7026,7 @@
         <v>3.9175</v>
       </c>
       <c r="G82" t="n">
-        <v>6.01723333333333</v>
+        <v>6.01724833333333</v>
       </c>
       <c r="H82" t="n">
         <v>31.726</v>
@@ -7037,13 +7037,13 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>2.406</v>
+        <v>2.4058</v>
       </c>
       <c r="M82" t="n">
-        <v>10.5632</v>
+        <v>10.56351</v>
       </c>
       <c r="N82" t="n">
-        <v>14.6755</v>
+        <v>14.67554</v>
       </c>
       <c r="O82" t="n">
         <v>1803578.705</v>
@@ -7577,13 +7577,13 @@
         <v>718</v>
       </c>
       <c r="G89" t="n">
-        <v>3970.25050558923</v>
+        <v>3907.37877455766</v>
       </c>
       <c r="H89" t="n">
         <v>73000</v>
       </c>
       <c r="I89" t="n">
-        <v>19030.51517</v>
+        <v>20500</v>
       </c>
       <c r="J89" t="n">
         <v>66.6666666666667</v>
@@ -7598,7 +7598,7 @@
         <v>3205.6</v>
       </c>
       <c r="N89" t="n">
-        <v>16917</v>
+        <v>13973</v>
       </c>
       <c r="O89" t="n">
         <v>1803578.705</v>
@@ -7662,13 +7662,13 @@
         <v>718</v>
       </c>
       <c r="G90" t="n">
-        <v>3970.25050558923</v>
+        <v>3907.37877455766</v>
       </c>
       <c r="H90" t="n">
         <v>73000</v>
       </c>
       <c r="I90" t="n">
-        <v>19030.51517</v>
+        <v>20500</v>
       </c>
       <c r="J90" t="n">
         <v>66.6666666666667</v>
@@ -7683,7 +7683,7 @@
         <v>3205.6</v>
       </c>
       <c r="N90" t="n">
-        <v>16917</v>
+        <v>13973</v>
       </c>
       <c r="O90" t="n">
         <v>1803578.705</v>
@@ -7747,13 +7747,13 @@
         <v>718</v>
       </c>
       <c r="G91" t="n">
-        <v>3970.25050558923</v>
+        <v>3907.37877455766</v>
       </c>
       <c r="H91" t="n">
         <v>73000</v>
       </c>
       <c r="I91" t="n">
-        <v>19030.51517</v>
+        <v>20500</v>
       </c>
       <c r="J91" t="n">
         <v>66.6666666666667</v>
@@ -7768,7 +7768,7 @@
         <v>3205.6</v>
       </c>
       <c r="N91" t="n">
-        <v>16917</v>
+        <v>13973</v>
       </c>
       <c r="O91" t="n">
         <v>1803578.705</v>
@@ -7832,13 +7832,13 @@
         <v>718</v>
       </c>
       <c r="G92" t="n">
-        <v>3970.25050558923</v>
+        <v>3907.37877455766</v>
       </c>
       <c r="H92" t="n">
         <v>73000</v>
       </c>
       <c r="I92" t="n">
-        <v>19030.51517</v>
+        <v>20500</v>
       </c>
       <c r="J92" t="n">
         <v>66.6666666666667</v>
@@ -7853,7 +7853,7 @@
         <v>3205.6</v>
       </c>
       <c r="N92" t="n">
-        <v>16917</v>
+        <v>13973</v>
       </c>
       <c r="O92" t="n">
         <v>1803578.705</v>
@@ -7917,7 +7917,7 @@
         <v>0.59218</v>
       </c>
       <c r="G93" t="n">
-        <v>1.66971266822272</v>
+        <v>1.66970967354946</v>
       </c>
       <c r="H93" t="n">
         <v>16.5134811893951</v>
@@ -7998,7 +7998,7 @@
         <v>0.59218</v>
       </c>
       <c r="G94" t="n">
-        <v>1.66971266822272</v>
+        <v>1.66970967354946</v>
       </c>
       <c r="H94" t="n">
         <v>16.5134811893951</v>
@@ -8237,7 +8237,7 @@
         <v>3.605</v>
       </c>
       <c r="G97" t="n">
-        <v>5.77135</v>
+        <v>5.77134166666667</v>
       </c>
       <c r="H97" t="n">
         <v>31.726</v>
@@ -8254,7 +8254,7 @@
         <v>10.094</v>
       </c>
       <c r="N97" t="n">
-        <v>13.5468</v>
+        <v>13.5467</v>
       </c>
       <c r="O97" t="n">
         <v>1803578.705</v>
@@ -8314,7 +8314,7 @@
         <v>3.605</v>
       </c>
       <c r="G98" t="n">
-        <v>5.77135</v>
+        <v>5.77134166666667</v>
       </c>
       <c r="H98" t="n">
         <v>31.726</v>
@@ -8331,7 +8331,7 @@
         <v>10.094</v>
       </c>
       <c r="N98" t="n">
-        <v>13.5468</v>
+        <v>13.5467</v>
       </c>
       <c r="O98" t="n">
         <v>1803578.705</v>
@@ -8865,13 +8865,13 @@
         <v>740</v>
       </c>
       <c r="G105" t="n">
-        <v>3841.00050558923</v>
+        <v>3778.12877455766</v>
       </c>
       <c r="H105" t="n">
         <v>73000</v>
       </c>
       <c r="I105" t="n">
-        <v>19030.51517</v>
+        <v>20500</v>
       </c>
       <c r="J105" t="n">
         <v>63.3333333333333</v>
@@ -8886,7 +8886,7 @@
         <v>3990</v>
       </c>
       <c r="N105" t="n">
-        <v>16500</v>
+        <v>12435.0444</v>
       </c>
       <c r="O105" t="n">
         <v>1803578.705</v>
@@ -8950,13 +8950,13 @@
         <v>740</v>
       </c>
       <c r="G106" t="n">
-        <v>3841.00050558923</v>
+        <v>3778.12877455766</v>
       </c>
       <c r="H106" t="n">
         <v>73000</v>
       </c>
       <c r="I106" t="n">
-        <v>19030.51517</v>
+        <v>20500</v>
       </c>
       <c r="J106" t="n">
         <v>63.3333333333333</v>
@@ -8971,7 +8971,7 @@
         <v>3990</v>
       </c>
       <c r="N106" t="n">
-        <v>16500</v>
+        <v>12435.0444</v>
       </c>
       <c r="O106" t="n">
         <v>1803578.705</v>
@@ -9035,13 +9035,13 @@
         <v>740</v>
       </c>
       <c r="G107" t="n">
-        <v>3841.00050558923</v>
+        <v>3778.12877455766</v>
       </c>
       <c r="H107" t="n">
         <v>73000</v>
       </c>
       <c r="I107" t="n">
-        <v>19030.51517</v>
+        <v>20500</v>
       </c>
       <c r="J107" t="n">
         <v>63.3333333333333</v>
@@ -9056,7 +9056,7 @@
         <v>3990</v>
       </c>
       <c r="N107" t="n">
-        <v>16500</v>
+        <v>12435.0444</v>
       </c>
       <c r="O107" t="n">
         <v>1803578.705</v>
@@ -9120,13 +9120,13 @@
         <v>740</v>
       </c>
       <c r="G108" t="n">
-        <v>3841.00050558923</v>
+        <v>3778.12877455766</v>
       </c>
       <c r="H108" t="n">
         <v>73000</v>
       </c>
       <c r="I108" t="n">
-        <v>19030.51517</v>
+        <v>20500</v>
       </c>
       <c r="J108" t="n">
         <v>63.3333333333333</v>
@@ -9141,7 +9141,7 @@
         <v>3990</v>
       </c>
       <c r="N108" t="n">
-        <v>16500</v>
+        <v>12435.0444</v>
       </c>
       <c r="O108" t="n">
         <v>1803578.705</v>
@@ -9205,7 +9205,7 @@
         <v>0.5374100000000001</v>
       </c>
       <c r="G109" t="n">
-        <v>1.24856108751808</v>
+        <v>1.24855529830633</v>
       </c>
       <c r="H109" t="n">
         <v>14.8809266683637</v>
@@ -9286,7 +9286,7 @@
         <v>0.5374100000000001</v>
       </c>
       <c r="G110" t="n">
-        <v>1.24856108751808</v>
+        <v>1.24855529830633</v>
       </c>
       <c r="H110" t="n">
         <v>14.8809266683637</v>
@@ -9525,13 +9525,13 @@
         <v>3.475</v>
       </c>
       <c r="G113" t="n">
-        <v>5.03521666666667</v>
+        <v>5.03520833333333</v>
       </c>
       <c r="H113" t="n">
         <v>29.1</v>
       </c>
       <c r="I113" t="n">
-        <v>14.446</v>
+        <v>14.44595</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -9539,10 +9539,10 @@
         <v>2.555</v>
       </c>
       <c r="M113" t="n">
-        <v>7.2648</v>
+        <v>7.26468</v>
       </c>
       <c r="N113" t="n">
-        <v>10.6878</v>
+        <v>10.68783</v>
       </c>
       <c r="O113" t="n">
         <v>1803578.705</v>
@@ -9602,13 +9602,13 @@
         <v>3.475</v>
       </c>
       <c r="G114" t="n">
-        <v>5.03521666666667</v>
+        <v>5.03520833333333</v>
       </c>
       <c r="H114" t="n">
         <v>29.1</v>
       </c>
       <c r="I114" t="n">
-        <v>14.446</v>
+        <v>14.44595</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -9616,10 +9616,10 @@
         <v>2.555</v>
       </c>
       <c r="M114" t="n">
-        <v>7.2648</v>
+        <v>7.26468</v>
       </c>
       <c r="N114" t="n">
-        <v>10.6878</v>
+        <v>10.68783</v>
       </c>
       <c r="O114" t="n">
         <v>1803578.705</v>
@@ -10153,13 +10153,13 @@
         <v>740</v>
       </c>
       <c r="G121" t="n">
-        <v>3515.20055388138</v>
+        <v>3602.49003056081</v>
       </c>
       <c r="H121" t="n">
         <v>73000</v>
       </c>
       <c r="I121" t="n">
-        <v>18012.00797</v>
+        <v>20750</v>
       </c>
       <c r="J121" t="n">
         <v>64.406779661017</v>
@@ -10238,13 +10238,13 @@
         <v>740</v>
       </c>
       <c r="G122" t="n">
-        <v>3515.20055388138</v>
+        <v>3602.49003056081</v>
       </c>
       <c r="H122" t="n">
         <v>73000</v>
       </c>
       <c r="I122" t="n">
-        <v>18012.00797</v>
+        <v>20750</v>
       </c>
       <c r="J122" t="n">
         <v>64.406779661017</v>
@@ -10323,13 +10323,13 @@
         <v>740</v>
       </c>
       <c r="G123" t="n">
-        <v>3515.20055388138</v>
+        <v>3602.49003056081</v>
       </c>
       <c r="H123" t="n">
         <v>73000</v>
       </c>
       <c r="I123" t="n">
-        <v>18012.00797</v>
+        <v>20750</v>
       </c>
       <c r="J123" t="n">
         <v>64.406779661017</v>
@@ -10408,13 +10408,13 @@
         <v>740</v>
       </c>
       <c r="G124" t="n">
-        <v>3515.20055388138</v>
+        <v>3602.49003056081</v>
       </c>
       <c r="H124" t="n">
         <v>73000</v>
       </c>
       <c r="I124" t="n">
-        <v>18012.00797</v>
+        <v>20750</v>
       </c>
       <c r="J124" t="n">
         <v>64.406779661017</v>
@@ -10493,7 +10493,7 @@
         <v>0.4631</v>
       </c>
       <c r="G125" t="n">
-        <v>1.21550196479569</v>
+        <v>1.21549519444993</v>
       </c>
       <c r="H125" t="n">
         <v>14.8809266683637</v>
@@ -10574,7 +10574,7 @@
         <v>0.4631</v>
       </c>
       <c r="G126" t="n">
-        <v>1.21550196479569</v>
+        <v>1.21549519444993</v>
       </c>
       <c r="H126" t="n">
         <v>14.8809266683637</v>
@@ -10655,7 +10655,7 @@
         <v>1.87</v>
       </c>
       <c r="G127" t="n">
-        <v>2.68832165542596</v>
+        <v>2.6883512651708</v>
       </c>
       <c r="H127" t="n">
         <v>10.5</v>
@@ -10736,7 +10736,7 @@
         <v>1.87</v>
       </c>
       <c r="G128" t="n">
-        <v>2.68832165542596</v>
+        <v>2.6883512651708</v>
       </c>
       <c r="H128" t="n">
         <v>10.5</v>
@@ -11441,10 +11441,10 @@
         <v>670</v>
       </c>
       <c r="G137" t="n">
-        <v>1705.14970642376</v>
+        <v>1792.43918310318</v>
       </c>
       <c r="H137" t="n">
-        <v>18021.8326790017</v>
+        <v>23171.9118030876</v>
       </c>
       <c r="I137" t="n">
         <v>4750</v>
@@ -11526,10 +11526,10 @@
         <v>670</v>
       </c>
       <c r="G138" t="n">
-        <v>1705.14970642376</v>
+        <v>1792.43918310318</v>
       </c>
       <c r="H138" t="n">
-        <v>18021.8326790017</v>
+        <v>23171.9118030876</v>
       </c>
       <c r="I138" t="n">
         <v>4750</v>
@@ -11611,10 +11611,10 @@
         <v>670</v>
       </c>
       <c r="G139" t="n">
-        <v>1705.14970642376</v>
+        <v>1792.43918310318</v>
       </c>
       <c r="H139" t="n">
-        <v>18021.8326790017</v>
+        <v>23171.9118030876</v>
       </c>
       <c r="I139" t="n">
         <v>4750</v>
@@ -11696,10 +11696,10 @@
         <v>670</v>
       </c>
       <c r="G140" t="n">
-        <v>1705.14970642376</v>
+        <v>1792.43918310318</v>
       </c>
       <c r="H140" t="n">
-        <v>18021.8326790017</v>
+        <v>23171.9118030876</v>
       </c>
       <c r="I140" t="n">
         <v>4750</v>
@@ -11781,7 +11781,7 @@
         <v>0.36003</v>
       </c>
       <c r="G141" t="n">
-        <v>0.965269837375099</v>
+        <v>0.965263099102447</v>
       </c>
       <c r="H141" t="n">
         <v>14.8809266683637</v>
@@ -11862,7 +11862,7 @@
         <v>0.36003</v>
       </c>
       <c r="G142" t="n">
-        <v>0.965269837375099</v>
+        <v>0.965263099102447</v>
       </c>
       <c r="H142" t="n">
         <v>14.8809266683637</v>
@@ -11943,7 +11943,7 @@
         <v>1.69</v>
       </c>
       <c r="G143" t="n">
-        <v>2.39959284186664</v>
+        <v>2.39962245161148</v>
       </c>
       <c r="H143" t="n">
         <v>10.5</v>
@@ -12024,7 +12024,7 @@
         <v>1.69</v>
       </c>
       <c r="G144" t="n">
-        <v>2.39959284186664</v>
+        <v>2.39962245161148</v>
       </c>
       <c r="H144" t="n">
         <v>10.5</v>
@@ -12729,10 +12729,10 @@
         <v>550</v>
       </c>
       <c r="G153" t="n">
-        <v>1563.52352570697</v>
+        <v>1326.02848344268</v>
       </c>
       <c r="H153" t="n">
-        <v>30630.1991007806</v>
+        <v>16855.2749688859</v>
       </c>
       <c r="I153" t="n">
         <v>4080</v>
@@ -12814,10 +12814,10 @@
         <v>550</v>
       </c>
       <c r="G154" t="n">
-        <v>1563.52352570697</v>
+        <v>1326.02848344268</v>
       </c>
       <c r="H154" t="n">
-        <v>30630.1991007806</v>
+        <v>16855.2749688859</v>
       </c>
       <c r="I154" t="n">
         <v>4080</v>
@@ -12899,10 +12899,10 @@
         <v>550</v>
       </c>
       <c r="G155" t="n">
-        <v>1563.52352570697</v>
+        <v>1326.02848344268</v>
       </c>
       <c r="H155" t="n">
-        <v>30630.1991007806</v>
+        <v>16855.2749688859</v>
       </c>
       <c r="I155" t="n">
         <v>4080</v>
@@ -12984,10 +12984,10 @@
         <v>550</v>
       </c>
       <c r="G156" t="n">
-        <v>1563.52352570697</v>
+        <v>1326.02848344268</v>
       </c>
       <c r="H156" t="n">
-        <v>30630.1991007806</v>
+        <v>16855.2749688859</v>
       </c>
       <c r="I156" t="n">
         <v>4080</v>
@@ -13069,7 +13069,7 @@
         <v>0.35988</v>
       </c>
       <c r="G157" t="n">
-        <v>1.15416298245932</v>
+        <v>1.1541599192152</v>
       </c>
       <c r="H157" t="n">
         <v>14.8809266683637</v>
@@ -13150,7 +13150,7 @@
         <v>0.35988</v>
       </c>
       <c r="G158" t="n">
-        <v>1.15416298245932</v>
+        <v>1.1541599192152</v>
       </c>
       <c r="H158" t="n">
         <v>14.8809266683637</v>
@@ -13231,7 +13231,7 @@
         <v>1.615</v>
       </c>
       <c r="G159" t="n">
-        <v>2.17420651155399</v>
+        <v>2.17423663181168</v>
       </c>
       <c r="H159" t="n">
         <v>10.5</v>
@@ -13312,7 +13312,7 @@
         <v>1.615</v>
       </c>
       <c r="G160" t="n">
-        <v>2.17420651155399</v>
+        <v>2.17423663181168</v>
       </c>
       <c r="H160" t="n">
         <v>10.5</v>
@@ -13825,6 +13825,1294 @@
         </is>
       </c>
     </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at d/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>0.9615</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1.64091379310345</v>
+      </c>
+      <c r="H167" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="I167" t="n">
+        <v>4.498</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M167" t="n">
+        <v>3.9516</v>
+      </c>
+      <c r="N167" t="n">
+        <v>4.1886</v>
+      </c>
+      <c r="O167" t="n">
+        <v>1803578.705</v>
+      </c>
+      <c r="P167" t="n">
+        <v>5557699.998</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T167" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at d/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>0.9615</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1.64091379310345</v>
+      </c>
+      <c r="H168" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="I168" t="n">
+        <v>4.498</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M168" t="n">
+        <v>3.9516</v>
+      </c>
+      <c r="N168" t="n">
+        <v>4.1886</v>
+      </c>
+      <c r="O168" t="n">
+        <v>1803578.705</v>
+      </c>
+      <c r="P168" t="n">
+        <v>5557699.998</v>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T168" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at d/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>490</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1252.90779378751</v>
+      </c>
+      <c r="H169" t="n">
+        <v>16855.2749688859</v>
+      </c>
+      <c r="I169" t="n">
+        <v>4080</v>
+      </c>
+      <c r="J169" t="n">
+        <v>44.8275862068966</v>
+      </c>
+      <c r="K169" t="n">
+        <v>72.4137931034483</v>
+      </c>
+      <c r="L169" t="n">
+        <v>899</v>
+      </c>
+      <c r="M169" t="n">
+        <v>1726.24</v>
+      </c>
+      <c r="N169" t="n">
+        <v>3601.38</v>
+      </c>
+      <c r="O169" t="n">
+        <v>1803578.705</v>
+      </c>
+      <c r="P169" t="n">
+        <v>5557699.998</v>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T169" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at d/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>490</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1252.90779378751</v>
+      </c>
+      <c r="H170" t="n">
+        <v>16855.2749688859</v>
+      </c>
+      <c r="I170" t="n">
+        <v>4080</v>
+      </c>
+      <c r="J170" t="n">
+        <v>44.8275862068966</v>
+      </c>
+      <c r="K170" t="n">
+        <v>72.4137931034483</v>
+      </c>
+      <c r="L170" t="n">
+        <v>899</v>
+      </c>
+      <c r="M170" t="n">
+        <v>1726.24</v>
+      </c>
+      <c r="N170" t="n">
+        <v>3601.38</v>
+      </c>
+      <c r="O170" t="n">
+        <v>1803578.705</v>
+      </c>
+      <c r="P170" t="n">
+        <v>5557699.998</v>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T170" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at d/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>490</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1252.90779378751</v>
+      </c>
+      <c r="H171" t="n">
+        <v>16855.2749688859</v>
+      </c>
+      <c r="I171" t="n">
+        <v>4080</v>
+      </c>
+      <c r="J171" t="n">
+        <v>44.8275862068966</v>
+      </c>
+      <c r="K171" t="n">
+        <v>72.4137931034483</v>
+      </c>
+      <c r="L171" t="n">
+        <v>899</v>
+      </c>
+      <c r="M171" t="n">
+        <v>1726.24</v>
+      </c>
+      <c r="N171" t="n">
+        <v>3601.38</v>
+      </c>
+      <c r="O171" t="n">
+        <v>1803578.705</v>
+      </c>
+      <c r="P171" t="n">
+        <v>5557699.998</v>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T171" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at d/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>490</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1252.90779378751</v>
+      </c>
+      <c r="H172" t="n">
+        <v>16855.2749688859</v>
+      </c>
+      <c r="I172" t="n">
+        <v>4080</v>
+      </c>
+      <c r="J172" t="n">
+        <v>44.8275862068966</v>
+      </c>
+      <c r="K172" t="n">
+        <v>72.4137931034483</v>
+      </c>
+      <c r="L172" t="n">
+        <v>899</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1726.24</v>
+      </c>
+      <c r="N172" t="n">
+        <v>3601.38</v>
+      </c>
+      <c r="O172" t="n">
+        <v>1803578.705</v>
+      </c>
+      <c r="P172" t="n">
+        <v>5557699.998</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T172" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at d/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>0.34953</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.846009912745724</v>
+      </c>
+      <c r="H173" t="n">
+        <v>5.62710303552482</v>
+      </c>
+      <c r="I173" t="n">
+        <v>3.67071</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>0.21639</v>
+      </c>
+      <c r="M173" t="n">
+        <v>1.76941</v>
+      </c>
+      <c r="N173" t="n">
+        <v>3.31961</v>
+      </c>
+      <c r="O173" t="n">
+        <v>1803578.705</v>
+      </c>
+      <c r="P173" t="n">
+        <v>5557699.998</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T173" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at d/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>0.34953</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.846009912745724</v>
+      </c>
+      <c r="H174" t="n">
+        <v>5.62710303552482</v>
+      </c>
+      <c r="I174" t="n">
+        <v>3.67071</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>0.21639</v>
+      </c>
+      <c r="M174" t="n">
+        <v>1.76941</v>
+      </c>
+      <c r="N174" t="n">
+        <v>3.31961</v>
+      </c>
+      <c r="O174" t="n">
+        <v>1803578.705</v>
+      </c>
+      <c r="P174" t="n">
+        <v>5557699.998</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T174" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at d/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1.80206421801858</v>
+      </c>
+      <c r="H175" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="I175" t="n">
+        <v>5.652</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="M175" t="n">
+        <v>3.1296</v>
+      </c>
+      <c r="N175" t="n">
+        <v>5.1952</v>
+      </c>
+      <c r="O175" t="n">
+        <v>1803578.705</v>
+      </c>
+      <c r="P175" t="n">
+        <v>5557699.998</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T175" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at d/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1.80206421801858</v>
+      </c>
+      <c r="H176" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="I176" t="n">
+        <v>5.652</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="M176" t="n">
+        <v>3.1296</v>
+      </c>
+      <c r="N176" t="n">
+        <v>5.1952</v>
+      </c>
+      <c r="O176" t="n">
+        <v>1803578.705</v>
+      </c>
+      <c r="P176" t="n">
+        <v>5557699.998</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T176" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at d/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>2.475</v>
+      </c>
+      <c r="G177" t="n">
+        <v>3.4061724137931</v>
+      </c>
+      <c r="H177" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="I177" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1.688</v>
+      </c>
+      <c r="M177" t="n">
+        <v>5.85572</v>
+      </c>
+      <c r="N177" t="n">
+        <v>7.7998</v>
+      </c>
+      <c r="O177" t="n">
+        <v>1803578.705</v>
+      </c>
+      <c r="P177" t="n">
+        <v>5557699.998</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T177" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at d/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>2.475</v>
+      </c>
+      <c r="G178" t="n">
+        <v>3.4061724137931</v>
+      </c>
+      <c r="H178" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="I178" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1.688</v>
+      </c>
+      <c r="M178" t="n">
+        <v>5.85572</v>
+      </c>
+      <c r="N178" t="n">
+        <v>7.7998</v>
+      </c>
+      <c r="O178" t="n">
+        <v>1803578.705</v>
+      </c>
+      <c r="P178" t="n">
+        <v>5557699.998</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T178" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at d/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="G179" t="n">
+        <v>6.61672413793103</v>
+      </c>
+      <c r="H179" t="n">
+        <v>17</v>
+      </c>
+      <c r="I179" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="M179" t="n">
+        <v>10.564</v>
+      </c>
+      <c r="N179" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="O179" t="n">
+        <v>1803578.705</v>
+      </c>
+      <c r="P179" t="n">
+        <v>5557699.998</v>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T179" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at d/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="G180" t="n">
+        <v>6.61672413793103</v>
+      </c>
+      <c r="H180" t="n">
+        <v>17</v>
+      </c>
+      <c r="I180" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="M180" t="n">
+        <v>10.564</v>
+      </c>
+      <c r="N180" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="O180" t="n">
+        <v>1803578.705</v>
+      </c>
+      <c r="P180" t="n">
+        <v>5557699.998</v>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T180" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at d/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G181" t="n">
+        <v>2.19681034482759</v>
+      </c>
+      <c r="H181" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="I181" t="n">
+        <v>6.102</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="M181" t="n">
+        <v>4.9112</v>
+      </c>
+      <c r="N181" t="n">
+        <v>5.4244</v>
+      </c>
+      <c r="O181" t="n">
+        <v>1803578.705</v>
+      </c>
+      <c r="P181" t="n">
+        <v>5557699.998</v>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T181" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Tutaenui Stream at d/s Marton STP</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G182" t="n">
+        <v>2.19681034482759</v>
+      </c>
+      <c r="H182" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="I182" t="n">
+        <v>6.102</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="M182" t="n">
+        <v>4.9112</v>
+      </c>
+      <c r="N182" t="n">
+        <v>5.4244</v>
+      </c>
+      <c r="O182" t="n">
+        <v>1803578.705</v>
+      </c>
+      <c r="P182" t="n">
+        <v>5557699.998</v>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T182" t="inlineStr">
+        <is>
+          <t>Rang_4d</t>
+        </is>
+      </c>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/TutaenuiStreamatdsMartonSTP_cb7475328f.xlsx
+++ b/state_results/Rivers/TutaenuiStreamatdsMartonSTP_cb7475328f.xlsx
@@ -3551,7 +3551,7 @@
         <v>682.5</v>
       </c>
       <c r="G39" t="n">
-        <v>4910.26357783953</v>
+        <v>4893.35237718084</v>
       </c>
       <c r="H39" t="n">
         <v>104620</v>
@@ -3572,7 +3572,7 @@
         <v>2580.4</v>
       </c>
       <c r="N39" t="n">
-        <v>9861.370269999999</v>
+        <v>9151.099840000001</v>
       </c>
       <c r="O39" t="n">
         <v>1803578.705</v>
@@ -3636,7 +3636,7 @@
         <v>682.5</v>
       </c>
       <c r="G40" t="n">
-        <v>4910.26357783953</v>
+        <v>4893.35237718084</v>
       </c>
       <c r="H40" t="n">
         <v>104620</v>
@@ -3657,7 +3657,7 @@
         <v>2580.4</v>
       </c>
       <c r="N40" t="n">
-        <v>9861.370269999999</v>
+        <v>9151.099840000001</v>
       </c>
       <c r="O40" t="n">
         <v>1803578.705</v>
@@ -3721,7 +3721,7 @@
         <v>682.5</v>
       </c>
       <c r="G41" t="n">
-        <v>4910.26357783953</v>
+        <v>4893.35237718084</v>
       </c>
       <c r="H41" t="n">
         <v>104620</v>
@@ -3742,7 +3742,7 @@
         <v>2580.4</v>
       </c>
       <c r="N41" t="n">
-        <v>9861.370269999999</v>
+        <v>9151.099840000001</v>
       </c>
       <c r="O41" t="n">
         <v>1803578.705</v>
@@ -3806,7 +3806,7 @@
         <v>682.5</v>
       </c>
       <c r="G42" t="n">
-        <v>4910.26357783953</v>
+        <v>4893.35237718084</v>
       </c>
       <c r="H42" t="n">
         <v>104620</v>
@@ -3827,7 +3827,7 @@
         <v>2580.4</v>
       </c>
       <c r="N42" t="n">
-        <v>9861.370269999999</v>
+        <v>9151.099840000001</v>
       </c>
       <c r="O42" t="n">
         <v>1803578.705</v>
@@ -4920,7 +4920,7 @@
         <v>740</v>
       </c>
       <c r="G56" t="n">
-        <v>6678.69691117286</v>
+        <v>6661.78571051418</v>
       </c>
       <c r="H56" t="n">
         <v>104620</v>
@@ -5005,7 +5005,7 @@
         <v>740</v>
       </c>
       <c r="G57" t="n">
-        <v>6678.69691117286</v>
+        <v>6661.78571051418</v>
       </c>
       <c r="H57" t="n">
         <v>104620</v>
@@ -5090,7 +5090,7 @@
         <v>740</v>
       </c>
       <c r="G58" t="n">
-        <v>6678.69691117286</v>
+        <v>6661.78571051418</v>
       </c>
       <c r="H58" t="n">
         <v>104620</v>
@@ -5175,7 +5175,7 @@
         <v>740</v>
       </c>
       <c r="G59" t="n">
-        <v>6678.69691117286</v>
+        <v>6661.78571051418</v>
       </c>
       <c r="H59" t="n">
         <v>104620</v>
@@ -6289,13 +6289,13 @@
         <v>630</v>
       </c>
       <c r="G73" t="n">
-        <v>3902.54544122432</v>
+        <v>3720.82488458026</v>
       </c>
       <c r="H73" t="n">
         <v>73000</v>
       </c>
       <c r="I73" t="n">
-        <v>20500</v>
+        <v>16195</v>
       </c>
       <c r="J73" t="n">
         <v>60</v>
@@ -6310,7 +6310,7 @@
         <v>3595.6</v>
       </c>
       <c r="N73" t="n">
-        <v>13973</v>
+        <v>13198.34531</v>
       </c>
       <c r="O73" t="n">
         <v>1803578.705</v>
@@ -6374,13 +6374,13 @@
         <v>630</v>
       </c>
       <c r="G74" t="n">
-        <v>3902.54544122432</v>
+        <v>3720.82488458026</v>
       </c>
       <c r="H74" t="n">
         <v>73000</v>
       </c>
       <c r="I74" t="n">
-        <v>20500</v>
+        <v>16195</v>
       </c>
       <c r="J74" t="n">
         <v>60</v>
@@ -6395,7 +6395,7 @@
         <v>3595.6</v>
       </c>
       <c r="N74" t="n">
-        <v>13973</v>
+        <v>13198.34531</v>
       </c>
       <c r="O74" t="n">
         <v>1803578.705</v>
@@ -6459,13 +6459,13 @@
         <v>630</v>
       </c>
       <c r="G75" t="n">
-        <v>3902.54544122432</v>
+        <v>3720.82488458026</v>
       </c>
       <c r="H75" t="n">
         <v>73000</v>
       </c>
       <c r="I75" t="n">
-        <v>20500</v>
+        <v>16195</v>
       </c>
       <c r="J75" t="n">
         <v>60</v>
@@ -6480,7 +6480,7 @@
         <v>3595.6</v>
       </c>
       <c r="N75" t="n">
-        <v>13973</v>
+        <v>13198.34531</v>
       </c>
       <c r="O75" t="n">
         <v>1803578.705</v>
@@ -6544,13 +6544,13 @@
         <v>630</v>
       </c>
       <c r="G76" t="n">
-        <v>3902.54544122432</v>
+        <v>3720.82488458026</v>
       </c>
       <c r="H76" t="n">
         <v>73000</v>
       </c>
       <c r="I76" t="n">
-        <v>20500</v>
+        <v>16195</v>
       </c>
       <c r="J76" t="n">
         <v>60</v>
@@ -6565,7 +6565,7 @@
         <v>3595.6</v>
       </c>
       <c r="N76" t="n">
-        <v>13973</v>
+        <v>13198.34531</v>
       </c>
       <c r="O76" t="n">
         <v>1803578.705</v>
@@ -7577,13 +7577,13 @@
         <v>718</v>
       </c>
       <c r="G89" t="n">
-        <v>3907.37877455766</v>
+        <v>3725.65821791359</v>
       </c>
       <c r="H89" t="n">
         <v>73000</v>
       </c>
       <c r="I89" t="n">
-        <v>20500</v>
+        <v>16195</v>
       </c>
       <c r="J89" t="n">
         <v>66.6666666666667</v>
@@ -7598,7 +7598,7 @@
         <v>3205.6</v>
       </c>
       <c r="N89" t="n">
-        <v>13973</v>
+        <v>13198.34531</v>
       </c>
       <c r="O89" t="n">
         <v>1803578.705</v>
@@ -7662,13 +7662,13 @@
         <v>718</v>
       </c>
       <c r="G90" t="n">
-        <v>3907.37877455766</v>
+        <v>3725.65821791359</v>
       </c>
       <c r="H90" t="n">
         <v>73000</v>
       </c>
       <c r="I90" t="n">
-        <v>20500</v>
+        <v>16195</v>
       </c>
       <c r="J90" t="n">
         <v>66.6666666666667</v>
@@ -7683,7 +7683,7 @@
         <v>3205.6</v>
       </c>
       <c r="N90" t="n">
-        <v>13973</v>
+        <v>13198.34531</v>
       </c>
       <c r="O90" t="n">
         <v>1803578.705</v>
@@ -7747,13 +7747,13 @@
         <v>718</v>
       </c>
       <c r="G91" t="n">
-        <v>3907.37877455766</v>
+        <v>3725.65821791359</v>
       </c>
       <c r="H91" t="n">
         <v>73000</v>
       </c>
       <c r="I91" t="n">
-        <v>20500</v>
+        <v>16195</v>
       </c>
       <c r="J91" t="n">
         <v>66.6666666666667</v>
@@ -7768,7 +7768,7 @@
         <v>3205.6</v>
       </c>
       <c r="N91" t="n">
-        <v>13973</v>
+        <v>13198.34531</v>
       </c>
       <c r="O91" t="n">
         <v>1803578.705</v>
@@ -7832,13 +7832,13 @@
         <v>718</v>
       </c>
       <c r="G92" t="n">
-        <v>3907.37877455766</v>
+        <v>3725.65821791359</v>
       </c>
       <c r="H92" t="n">
         <v>73000</v>
       </c>
       <c r="I92" t="n">
-        <v>20500</v>
+        <v>16195</v>
       </c>
       <c r="J92" t="n">
         <v>66.6666666666667</v>
@@ -7853,7 +7853,7 @@
         <v>3205.6</v>
       </c>
       <c r="N92" t="n">
-        <v>13973</v>
+        <v>13198.34531</v>
       </c>
       <c r="O92" t="n">
         <v>1803578.705</v>
@@ -8865,13 +8865,13 @@
         <v>740</v>
       </c>
       <c r="G105" t="n">
-        <v>3778.12877455766</v>
+        <v>3596.40821791359</v>
       </c>
       <c r="H105" t="n">
         <v>73000</v>
       </c>
       <c r="I105" t="n">
-        <v>20500</v>
+        <v>15641.67522</v>
       </c>
       <c r="J105" t="n">
         <v>63.3333333333333</v>
@@ -8886,7 +8886,7 @@
         <v>3990</v>
       </c>
       <c r="N105" t="n">
-        <v>12435.0444</v>
+        <v>12130.64279</v>
       </c>
       <c r="O105" t="n">
         <v>1803578.705</v>
@@ -8950,13 +8950,13 @@
         <v>740</v>
       </c>
       <c r="G106" t="n">
-        <v>3778.12877455766</v>
+        <v>3596.40821791359</v>
       </c>
       <c r="H106" t="n">
         <v>73000</v>
       </c>
       <c r="I106" t="n">
-        <v>20500</v>
+        <v>15641.67522</v>
       </c>
       <c r="J106" t="n">
         <v>63.3333333333333</v>
@@ -8971,7 +8971,7 @@
         <v>3990</v>
       </c>
       <c r="N106" t="n">
-        <v>12435.0444</v>
+        <v>12130.64279</v>
       </c>
       <c r="O106" t="n">
         <v>1803578.705</v>
@@ -9035,13 +9035,13 @@
         <v>740</v>
       </c>
       <c r="G107" t="n">
-        <v>3778.12877455766</v>
+        <v>3596.40821791359</v>
       </c>
       <c r="H107" t="n">
         <v>73000</v>
       </c>
       <c r="I107" t="n">
-        <v>20500</v>
+        <v>15641.67522</v>
       </c>
       <c r="J107" t="n">
         <v>63.3333333333333</v>
@@ -9056,7 +9056,7 @@
         <v>3990</v>
       </c>
       <c r="N107" t="n">
-        <v>12435.0444</v>
+        <v>12130.64279</v>
       </c>
       <c r="O107" t="n">
         <v>1803578.705</v>
@@ -9120,13 +9120,13 @@
         <v>740</v>
       </c>
       <c r="G108" t="n">
-        <v>3778.12877455766</v>
+        <v>3596.40821791359</v>
       </c>
       <c r="H108" t="n">
         <v>73000</v>
       </c>
       <c r="I108" t="n">
-        <v>20500</v>
+        <v>15641.67522</v>
       </c>
       <c r="J108" t="n">
         <v>63.3333333333333</v>
@@ -9141,7 +9141,7 @@
         <v>3990</v>
       </c>
       <c r="N108" t="n">
-        <v>12435.0444</v>
+        <v>12130.64279</v>
       </c>
       <c r="O108" t="n">
         <v>1803578.705</v>
@@ -10153,13 +10153,13 @@
         <v>740</v>
       </c>
       <c r="G121" t="n">
-        <v>3602.49003056081</v>
+        <v>3434.88729566042</v>
       </c>
       <c r="H121" t="n">
         <v>73000</v>
       </c>
       <c r="I121" t="n">
-        <v>20750</v>
+        <v>15877.5077</v>
       </c>
       <c r="J121" t="n">
         <v>64.406779661017</v>
@@ -10238,13 +10238,13 @@
         <v>740</v>
       </c>
       <c r="G122" t="n">
-        <v>3602.49003056081</v>
+        <v>3434.88729566042</v>
       </c>
       <c r="H122" t="n">
         <v>73000</v>
       </c>
       <c r="I122" t="n">
-        <v>20750</v>
+        <v>15877.5077</v>
       </c>
       <c r="J122" t="n">
         <v>64.406779661017</v>
@@ -10323,13 +10323,13 @@
         <v>740</v>
       </c>
       <c r="G123" t="n">
-        <v>3602.49003056081</v>
+        <v>3434.88729566042</v>
       </c>
       <c r="H123" t="n">
         <v>73000</v>
       </c>
       <c r="I123" t="n">
-        <v>20750</v>
+        <v>15877.5077</v>
       </c>
       <c r="J123" t="n">
         <v>64.406779661017</v>
@@ -10408,13 +10408,13 @@
         <v>740</v>
       </c>
       <c r="G124" t="n">
-        <v>3602.49003056081</v>
+        <v>3434.88729566042</v>
       </c>
       <c r="H124" t="n">
         <v>73000</v>
       </c>
       <c r="I124" t="n">
-        <v>20750</v>
+        <v>15877.5077</v>
       </c>
       <c r="J124" t="n">
         <v>64.406779661017</v>
@@ -11441,10 +11441,10 @@
         <v>670</v>
       </c>
       <c r="G137" t="n">
-        <v>1792.43918310318</v>
+        <v>1624.8364482028</v>
       </c>
       <c r="H137" t="n">
-        <v>23171.9118030876</v>
+        <v>18000</v>
       </c>
       <c r="I137" t="n">
         <v>4750</v>
@@ -11526,10 +11526,10 @@
         <v>670</v>
       </c>
       <c r="G138" t="n">
-        <v>1792.43918310318</v>
+        <v>1624.8364482028</v>
       </c>
       <c r="H138" t="n">
-        <v>23171.9118030876</v>
+        <v>18000</v>
       </c>
       <c r="I138" t="n">
         <v>4750</v>
@@ -11611,10 +11611,10 @@
         <v>670</v>
       </c>
       <c r="G139" t="n">
-        <v>1792.43918310318</v>
+        <v>1624.8364482028</v>
       </c>
       <c r="H139" t="n">
-        <v>23171.9118030876</v>
+        <v>18000</v>
       </c>
       <c r="I139" t="n">
         <v>4750</v>
@@ -11696,10 +11696,10 @@
         <v>670</v>
       </c>
       <c r="G140" t="n">
-        <v>1792.43918310318</v>
+        <v>1624.8364482028</v>
       </c>
       <c r="H140" t="n">
-        <v>23171.9118030876</v>
+        <v>18000</v>
       </c>
       <c r="I140" t="n">
         <v>4750</v>
@@ -12729,10 +12729,10 @@
         <v>550</v>
       </c>
       <c r="G153" t="n">
-        <v>1326.02848344268</v>
+        <v>1205.56506562878</v>
       </c>
       <c r="H153" t="n">
-        <v>16855.2749688859</v>
+        <v>9868.39673567974</v>
       </c>
       <c r="I153" t="n">
         <v>4080</v>
@@ -12814,10 +12814,10 @@
         <v>550</v>
       </c>
       <c r="G154" t="n">
-        <v>1326.02848344268</v>
+        <v>1205.56506562878</v>
       </c>
       <c r="H154" t="n">
-        <v>16855.2749688859</v>
+        <v>9868.39673567974</v>
       </c>
       <c r="I154" t="n">
         <v>4080</v>
@@ -12899,10 +12899,10 @@
         <v>550</v>
       </c>
       <c r="G155" t="n">
-        <v>1326.02848344268</v>
+        <v>1205.56506562878</v>
       </c>
       <c r="H155" t="n">
-        <v>16855.2749688859</v>
+        <v>9868.39673567974</v>
       </c>
       <c r="I155" t="n">
         <v>4080</v>
@@ -12984,10 +12984,10 @@
         <v>550</v>
       </c>
       <c r="G156" t="n">
-        <v>1326.02848344268</v>
+        <v>1205.56506562878</v>
       </c>
       <c r="H156" t="n">
-        <v>16855.2749688859</v>
+        <v>9868.39673567974</v>
       </c>
       <c r="I156" t="n">
         <v>4080</v>
@@ -14017,10 +14017,10 @@
         <v>490</v>
       </c>
       <c r="G169" t="n">
-        <v>1252.90779378751</v>
+        <v>1132.44437597361</v>
       </c>
       <c r="H169" t="n">
-        <v>16855.2749688859</v>
+        <v>9868.39673567974</v>
       </c>
       <c r="I169" t="n">
         <v>4080</v>
@@ -14102,10 +14102,10 @@
         <v>490</v>
       </c>
       <c r="G170" t="n">
-        <v>1252.90779378751</v>
+        <v>1132.44437597361</v>
       </c>
       <c r="H170" t="n">
-        <v>16855.2749688859</v>
+        <v>9868.39673567974</v>
       </c>
       <c r="I170" t="n">
         <v>4080</v>
@@ -14187,10 +14187,10 @@
         <v>490</v>
       </c>
       <c r="G171" t="n">
-        <v>1252.90779378751</v>
+        <v>1132.44437597361</v>
       </c>
       <c r="H171" t="n">
-        <v>16855.2749688859</v>
+        <v>9868.39673567974</v>
       </c>
       <c r="I171" t="n">
         <v>4080</v>
@@ -14272,10 +14272,10 @@
         <v>490</v>
       </c>
       <c r="G172" t="n">
-        <v>1252.90779378751</v>
+        <v>1132.44437597361</v>
       </c>
       <c r="H172" t="n">
-        <v>16855.2749688859</v>
+        <v>9868.39673567974</v>
       </c>
       <c r="I172" t="n">
         <v>4080</v>

--- a/state_results/Rivers/TutaenuiStreamatdsMartonSTP_cb7475328f.xlsx
+++ b/state_results/Rivers/TutaenuiStreamatdsMartonSTP_cb7475328f.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="68">
   <si>
     <t>site name</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>Impact</t>
@@ -572,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U182"/>
+  <dimension ref="A1:U198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,7 +660,7 @@
         <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F2">
         <v>0.9</v>
@@ -672,7 +675,7 @@
         <v>2.704</v>
       </c>
       <c r="L2">
-        <v>1.1</v>
+        <v>1.35</v>
       </c>
       <c r="M2">
         <v>1.8835</v>
@@ -687,19 +690,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -716,13 +719,13 @@
         <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F3">
         <v>0.076</v>
       </c>
       <c r="G3">
-        <v>1.00002300652815</v>
+        <v>1.00002717352872</v>
       </c>
       <c r="H3">
         <v>5.358</v>
@@ -731,7 +734,7 @@
         <v>4.8098</v>
       </c>
       <c r="L3">
-        <v>0.27</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="M3">
         <v>3.1224</v>
@@ -746,19 +749,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -775,13 +778,13 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F4">
         <v>0.076</v>
       </c>
       <c r="G4">
-        <v>1.00002300652815</v>
+        <v>1.00002717352872</v>
       </c>
       <c r="H4">
         <v>5.358</v>
@@ -790,7 +793,7 @@
         <v>4.8098</v>
       </c>
       <c r="L4">
-        <v>0.27</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="M4">
         <v>3.1224</v>
@@ -805,19 +808,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -834,13 +837,13 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F5">
         <v>966</v>
       </c>
       <c r="G5">
-        <v>7079.25862068965</v>
+        <v>7079.25517241379</v>
       </c>
       <c r="H5">
         <v>129965</v>
@@ -855,7 +858,7 @@
         <v>84.48275862068969</v>
       </c>
       <c r="L5">
-        <v>580</v>
+        <v>612.7</v>
       </c>
       <c r="M5">
         <v>3120</v>
@@ -870,19 +873,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -899,13 +902,13 @@
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F6">
         <v>966</v>
       </c>
       <c r="G6">
-        <v>7079.25862068965</v>
+        <v>7079.25517241379</v>
       </c>
       <c r="H6">
         <v>129965</v>
@@ -920,7 +923,7 @@
         <v>84.48275862068969</v>
       </c>
       <c r="L6">
-        <v>580</v>
+        <v>612.7</v>
       </c>
       <c r="M6">
         <v>3120</v>
@@ -935,19 +938,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -964,13 +967,13 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F7">
         <v>966</v>
       </c>
       <c r="G7">
-        <v>7079.25862068965</v>
+        <v>7079.25517241379</v>
       </c>
       <c r="H7">
         <v>129965</v>
@@ -985,7 +988,7 @@
         <v>84.48275862068969</v>
       </c>
       <c r="L7">
-        <v>580</v>
+        <v>612.7</v>
       </c>
       <c r="M7">
         <v>3120</v>
@@ -1000,19 +1003,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1029,13 +1032,13 @@
         <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F8">
         <v>966</v>
       </c>
       <c r="G8">
-        <v>7079.25862068965</v>
+        <v>7079.25517241379</v>
       </c>
       <c r="H8">
         <v>129965</v>
@@ -1050,7 +1053,7 @@
         <v>84.48275862068969</v>
       </c>
       <c r="L8">
-        <v>580</v>
+        <v>612.7</v>
       </c>
       <c r="M8">
         <v>3120</v>
@@ -1065,19 +1068,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1094,13 +1097,13 @@
         <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9">
         <v>0.05518</v>
       </c>
       <c r="G9">
-        <v>2.08680537211842</v>
+        <v>2.08680732050699</v>
       </c>
       <c r="H9">
         <v>19.1575234354967</v>
@@ -1109,7 +1112,7 @@
         <v>15.23437</v>
       </c>
       <c r="L9">
-        <v>0.16367</v>
+        <v>0.03006</v>
       </c>
       <c r="M9">
         <v>3.22625</v>
@@ -1124,19 +1127,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1153,13 +1156,13 @@
         <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F10">
         <v>0.05518</v>
       </c>
       <c r="G10">
-        <v>2.08680537211842</v>
+        <v>2.08680732050699</v>
       </c>
       <c r="H10">
         <v>19.1575234354967</v>
@@ -1168,7 +1171,7 @@
         <v>15.23437</v>
       </c>
       <c r="L10">
-        <v>0.16367</v>
+        <v>0.03006</v>
       </c>
       <c r="M10">
         <v>3.22625</v>
@@ -1183,19 +1186,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1212,13 +1215,13 @@
         <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11">
         <v>1.52145</v>
       </c>
       <c r="G11">
-        <v>2.89530734800615</v>
+        <v>2.89496201000292</v>
       </c>
       <c r="H11">
         <v>16</v>
@@ -1242,19 +1245,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1271,13 +1274,13 @@
         <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F12">
         <v>1.52145</v>
       </c>
       <c r="G12">
-        <v>2.89530734800615</v>
+        <v>2.89496201000292</v>
       </c>
       <c r="H12">
         <v>16</v>
@@ -1301,19 +1304,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1327,7 +1330,7 @@
         <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F13">
         <v>2.2705</v>
@@ -1342,7 +1345,7 @@
         <v>22.8422</v>
       </c>
       <c r="L13">
-        <v>2.4216</v>
+        <v>0.893</v>
       </c>
       <c r="M13">
         <v>11.89165</v>
@@ -1357,19 +1360,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1383,7 +1386,7 @@
         <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14">
         <v>2.2705</v>
@@ -1398,7 +1401,7 @@
         <v>22.8422</v>
       </c>
       <c r="L14">
-        <v>2.4216</v>
+        <v>0.893</v>
       </c>
       <c r="M14">
         <v>11.89165</v>
@@ -1413,19 +1416,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1439,7 +1442,7 @@
         <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F15">
         <v>3.76</v>
@@ -1454,7 +1457,7 @@
         <v>36.446</v>
       </c>
       <c r="L15">
-        <v>13.1</v>
+        <v>5.03</v>
       </c>
       <c r="M15">
         <v>22.2672</v>
@@ -1469,19 +1472,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1495,7 +1498,7 @@
         <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F16">
         <v>3.76</v>
@@ -1510,7 +1513,7 @@
         <v>36.446</v>
       </c>
       <c r="L16">
-        <v>13.1</v>
+        <v>5.03</v>
       </c>
       <c r="M16">
         <v>22.2672</v>
@@ -1525,19 +1528,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1551,7 +1554,7 @@
         <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F17">
         <v>0.201</v>
@@ -1566,7 +1569,7 @@
         <v>6.528</v>
       </c>
       <c r="L17">
-        <v>3.14</v>
+        <v>0.49</v>
       </c>
       <c r="M17">
         <v>4.36704</v>
@@ -1581,19 +1584,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1607,7 +1610,7 @@
         <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F18">
         <v>0.201</v>
@@ -1622,7 +1625,7 @@
         <v>6.528</v>
       </c>
       <c r="L18">
-        <v>3.14</v>
+        <v>0.49</v>
       </c>
       <c r="M18">
         <v>4.36704</v>
@@ -1637,19 +1640,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1666,13 +1669,13 @@
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F19">
         <v>0.47</v>
       </c>
       <c r="G19">
-        <v>0.738213124313829</v>
+        <v>0.738017273042972</v>
       </c>
       <c r="H19">
         <v>2.74</v>
@@ -1681,7 +1684,7 @@
         <v>2.1</v>
       </c>
       <c r="L19">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="M19">
         <v>1.4325</v>
@@ -1696,19 +1699,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1725,13 +1728,13 @@
         <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F20">
         <v>0.247</v>
       </c>
       <c r="G20">
-        <v>1.3716092134247</v>
+        <v>1.37161338042527</v>
       </c>
       <c r="H20">
         <v>5.358</v>
@@ -1740,7 +1743,7 @@
         <v>5.073</v>
       </c>
       <c r="L20">
-        <v>2.7</v>
+        <v>1.385</v>
       </c>
       <c r="M20">
         <v>3.81716</v>
@@ -1755,19 +1758,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1784,13 +1787,13 @@
         <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21">
         <v>0.247</v>
       </c>
       <c r="G21">
-        <v>1.3716092134247</v>
+        <v>1.37161338042527</v>
       </c>
       <c r="H21">
         <v>5.358</v>
@@ -1799,7 +1802,7 @@
         <v>5.073</v>
       </c>
       <c r="L21">
-        <v>2.7</v>
+        <v>1.385</v>
       </c>
       <c r="M21">
         <v>3.81716</v>
@@ -1814,19 +1817,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1843,7 +1846,7 @@
         <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22">
         <v>783.5</v>
@@ -1864,7 +1867,7 @@
         <v>81.0344827586207</v>
       </c>
       <c r="L22">
-        <v>587</v>
+        <v>716</v>
       </c>
       <c r="M22">
         <v>2599.2</v>
@@ -1879,19 +1882,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1908,7 +1911,7 @@
         <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23">
         <v>783.5</v>
@@ -1929,7 +1932,7 @@
         <v>81.0344827586207</v>
       </c>
       <c r="L23">
-        <v>587</v>
+        <v>716</v>
       </c>
       <c r="M23">
         <v>2599.2</v>
@@ -1944,19 +1947,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1973,7 +1976,7 @@
         <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F24">
         <v>783.5</v>
@@ -1994,7 +1997,7 @@
         <v>81.0344827586207</v>
       </c>
       <c r="L24">
-        <v>587</v>
+        <v>716</v>
       </c>
       <c r="M24">
         <v>2599.2</v>
@@ -2009,19 +2012,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2038,7 +2041,7 @@
         <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F25">
         <v>783.5</v>
@@ -2059,7 +2062,7 @@
         <v>81.0344827586207</v>
       </c>
       <c r="L25">
-        <v>587</v>
+        <v>716</v>
       </c>
       <c r="M25">
         <v>2599.2</v>
@@ -2074,19 +2077,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2103,13 +2106,13 @@
         <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26">
         <v>0.25028</v>
       </c>
       <c r="G26">
-        <v>2.65671912394739</v>
+        <v>2.65671992555389</v>
       </c>
       <c r="H26">
         <v>19.1575234354967</v>
@@ -2118,7 +2121,7 @@
         <v>16.37029</v>
       </c>
       <c r="L26">
-        <v>0.16367</v>
+        <v>0.08953999999999999</v>
       </c>
       <c r="M26">
         <v>5.47722</v>
@@ -2133,19 +2136,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2162,13 +2165,13 @@
         <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F27">
         <v>0.25028</v>
       </c>
       <c r="G27">
-        <v>2.65671912394739</v>
+        <v>2.65671992555389</v>
       </c>
       <c r="H27">
         <v>19.1575234354967</v>
@@ -2177,7 +2180,7 @@
         <v>16.37029</v>
       </c>
       <c r="L27">
-        <v>0.16367</v>
+        <v>0.08953999999999999</v>
       </c>
       <c r="M27">
         <v>5.47722</v>
@@ -2192,19 +2195,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2221,13 +2224,13 @@
         <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F28">
         <v>1.52145</v>
       </c>
       <c r="G28">
-        <v>2.57550090869474</v>
+        <v>2.57521511172655</v>
       </c>
       <c r="H28">
         <v>16</v>
@@ -2236,7 +2239,7 @@
         <v>11.77962</v>
       </c>
       <c r="L28">
-        <v>0.7221</v>
+        <v>0.8866000000000001</v>
       </c>
       <c r="M28">
         <v>3.45734</v>
@@ -2251,19 +2254,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2280,13 +2283,13 @@
         <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F29">
         <v>1.52145</v>
       </c>
       <c r="G29">
-        <v>2.57550090869474</v>
+        <v>2.57521511172655</v>
       </c>
       <c r="H29">
         <v>16</v>
@@ -2295,7 +2298,7 @@
         <v>11.77962</v>
       </c>
       <c r="L29">
-        <v>0.7221</v>
+        <v>0.8866000000000001</v>
       </c>
       <c r="M29">
         <v>3.45734</v>
@@ -2310,19 +2313,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2336,7 +2339,7 @@
         <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F30">
         <v>2.9246</v>
@@ -2366,19 +2369,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2392,7 +2395,7 @@
         <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F31">
         <v>2.9246</v>
@@ -2422,19 +2425,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2448,7 +2451,7 @@
         <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F32">
         <v>5.6105</v>
@@ -2463,7 +2466,7 @@
         <v>36.446</v>
       </c>
       <c r="L32">
-        <v>13.1</v>
+        <v>9.457000000000001</v>
       </c>
       <c r="M32">
         <v>23.6328</v>
@@ -2478,19 +2481,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2504,7 +2507,7 @@
         <v>44</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F33">
         <v>5.6105</v>
@@ -2519,7 +2522,7 @@
         <v>36.446</v>
       </c>
       <c r="L33">
-        <v>13.1</v>
+        <v>9.457000000000001</v>
       </c>
       <c r="M33">
         <v>23.6328</v>
@@ -2534,19 +2537,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2560,7 +2563,7 @@
         <v>44</v>
       </c>
       <c r="E34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F34">
         <v>0.475</v>
@@ -2575,7 +2578,7 @@
         <v>6.528</v>
       </c>
       <c r="L34">
-        <v>3.6</v>
+        <v>2.132</v>
       </c>
       <c r="M34">
         <v>5.04952</v>
@@ -2590,19 +2593,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2616,7 +2619,7 @@
         <v>44</v>
       </c>
       <c r="E35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F35">
         <v>0.475</v>
@@ -2631,7 +2634,7 @@
         <v>6.528</v>
       </c>
       <c r="L35">
-        <v>3.6</v>
+        <v>2.132</v>
       </c>
       <c r="M35">
         <v>5.04952</v>
@@ -2646,19 +2649,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2675,13 +2678,13 @@
         <v>45</v>
       </c>
       <c r="E36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F36">
         <v>0.45</v>
       </c>
       <c r="G36">
-        <v>0.713715117594162</v>
+        <v>0.713529852878487</v>
       </c>
       <c r="H36">
         <v>2.74</v>
@@ -2705,19 +2708,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2734,13 +2737,13 @@
         <v>45</v>
       </c>
       <c r="E37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F37">
         <v>0.6205000000000001</v>
       </c>
       <c r="G37">
-        <v>1.68438890631055</v>
+        <v>1.68439293441109</v>
       </c>
       <c r="H37">
         <v>7.04</v>
@@ -2749,7 +2752,7 @@
         <v>5.273</v>
       </c>
       <c r="L37">
-        <v>3.8005</v>
+        <v>2.59</v>
       </c>
       <c r="M37">
         <v>4.4606</v>
@@ -2764,19 +2767,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2793,13 +2796,13 @@
         <v>45</v>
       </c>
       <c r="E38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F38">
         <v>0.6205000000000001</v>
       </c>
       <c r="G38">
-        <v>1.68438890631055</v>
+        <v>1.68439293441109</v>
       </c>
       <c r="H38">
         <v>7.04</v>
@@ -2808,7 +2811,7 @@
         <v>5.273</v>
       </c>
       <c r="L38">
-        <v>3.8005</v>
+        <v>2.59</v>
       </c>
       <c r="M38">
         <v>4.4606</v>
@@ -2823,19 +2826,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2852,13 +2855,13 @@
         <v>45</v>
       </c>
       <c r="E39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F39">
         <v>682.5</v>
       </c>
       <c r="G39">
-        <v>4957.56481754761</v>
+        <v>4913.14154662582</v>
       </c>
       <c r="H39">
         <v>104620</v>
@@ -2873,13 +2876,13 @@
         <v>78.3333333333333</v>
       </c>
       <c r="L39">
-        <v>583.5</v>
+        <v>673</v>
       </c>
       <c r="M39">
         <v>2580.4</v>
       </c>
       <c r="N39">
-        <v>11848.02234</v>
+        <v>9982.24496</v>
       </c>
       <c r="O39">
         <v>1803578.705</v>
@@ -2888,19 +2891,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2917,13 +2920,13 @@
         <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F40">
         <v>682.5</v>
       </c>
       <c r="G40">
-        <v>4957.56481754761</v>
+        <v>4913.14154662582</v>
       </c>
       <c r="H40">
         <v>104620</v>
@@ -2938,13 +2941,13 @@
         <v>78.3333333333333</v>
       </c>
       <c r="L40">
-        <v>583.5</v>
+        <v>673</v>
       </c>
       <c r="M40">
         <v>2580.4</v>
       </c>
       <c r="N40">
-        <v>11848.02234</v>
+        <v>9982.24496</v>
       </c>
       <c r="O40">
         <v>1803578.705</v>
@@ -2953,19 +2956,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2982,13 +2985,13 @@
         <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F41">
         <v>682.5</v>
       </c>
       <c r="G41">
-        <v>4957.56481754761</v>
+        <v>4913.14154662582</v>
       </c>
       <c r="H41">
         <v>104620</v>
@@ -3003,13 +3006,13 @@
         <v>78.3333333333333</v>
       </c>
       <c r="L41">
-        <v>583.5</v>
+        <v>673</v>
       </c>
       <c r="M41">
         <v>2580.4</v>
       </c>
       <c r="N41">
-        <v>11848.02234</v>
+        <v>9982.24496</v>
       </c>
       <c r="O41">
         <v>1803578.705</v>
@@ -3018,19 +3021,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3047,13 +3050,13 @@
         <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F42">
         <v>682.5</v>
       </c>
       <c r="G42">
-        <v>4957.56481754761</v>
+        <v>4913.14154662582</v>
       </c>
       <c r="H42">
         <v>104620</v>
@@ -3068,13 +3071,13 @@
         <v>78.3333333333333</v>
       </c>
       <c r="L42">
-        <v>583.5</v>
+        <v>673</v>
       </c>
       <c r="M42">
         <v>2580.4</v>
       </c>
       <c r="N42">
-        <v>11848.02234</v>
+        <v>9982.24496</v>
       </c>
       <c r="O42">
         <v>1803578.705</v>
@@ -3083,19 +3086,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3112,13 +3115,13 @@
         <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F43">
         <v>0.61266</v>
       </c>
       <c r="G43">
-        <v>2.74432947834345</v>
+        <v>2.74433420169312</v>
       </c>
       <c r="H43">
         <v>19.1575234354967</v>
@@ -3127,7 +3130,7 @@
         <v>16.29869</v>
       </c>
       <c r="L43">
-        <v>0.36646</v>
+        <v>0.2556</v>
       </c>
       <c r="M43">
         <v>5.16313</v>
@@ -3142,19 +3145,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3171,13 +3174,13 @@
         <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F44">
         <v>0.61266</v>
       </c>
       <c r="G44">
-        <v>2.74432947834345</v>
+        <v>2.74433420169312</v>
       </c>
       <c r="H44">
         <v>19.1575234354967</v>
@@ -3186,7 +3189,7 @@
         <v>16.29869</v>
       </c>
       <c r="L44">
-        <v>0.36646</v>
+        <v>0.2556</v>
       </c>
       <c r="M44">
         <v>5.16313</v>
@@ -3201,19 +3204,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3230,7 +3233,7 @@
         <v>45</v>
       </c>
       <c r="E45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F45">
         <v>1.8399</v>
@@ -3245,7 +3248,7 @@
         <v>11.6277</v>
       </c>
       <c r="L45">
-        <v>0.82605</v>
+        <v>0.96755</v>
       </c>
       <c r="M45">
         <v>4.646</v>
@@ -3260,19 +3263,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3289,7 +3292,7 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F46">
         <v>1.8399</v>
@@ -3304,7 +3307,7 @@
         <v>11.6277</v>
       </c>
       <c r="L46">
-        <v>0.82605</v>
+        <v>0.96755</v>
       </c>
       <c r="M46">
         <v>4.646</v>
@@ -3319,19 +3322,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3345,7 +3348,7 @@
         <v>45</v>
       </c>
       <c r="E47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F47">
         <v>4.40435</v>
@@ -3360,7 +3363,7 @@
         <v>25.21565</v>
       </c>
       <c r="L47">
-        <v>2.7325</v>
+        <v>3.4121</v>
       </c>
       <c r="M47">
         <v>13.78013</v>
@@ -3375,19 +3378,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3401,7 +3404,7 @@
         <v>45</v>
       </c>
       <c r="E48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F48">
         <v>4.40435</v>
@@ -3416,7 +3419,7 @@
         <v>25.21565</v>
       </c>
       <c r="L48">
-        <v>2.7325</v>
+        <v>3.4121</v>
       </c>
       <c r="M48">
         <v>13.78013</v>
@@ -3431,19 +3434,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3457,7 +3460,7 @@
         <v>45</v>
       </c>
       <c r="E49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F49">
         <v>8.005000000000001</v>
@@ -3472,7 +3475,7 @@
         <v>36.205</v>
       </c>
       <c r="L49">
-        <v>11.31</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="M49">
         <v>21.594</v>
@@ -3487,19 +3490,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U49" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3513,7 +3516,7 @@
         <v>45</v>
       </c>
       <c r="E50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F50">
         <v>8.005000000000001</v>
@@ -3528,7 +3531,7 @@
         <v>36.205</v>
       </c>
       <c r="L50">
-        <v>11.31</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="M50">
         <v>21.594</v>
@@ -3543,19 +3546,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3569,7 +3572,7 @@
         <v>45</v>
       </c>
       <c r="E51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F51">
         <v>0.7805</v>
@@ -3584,7 +3587,7 @@
         <v>6.875</v>
       </c>
       <c r="L51">
-        <v>4.956</v>
+        <v>3.892</v>
       </c>
       <c r="M51">
         <v>5.4537</v>
@@ -3599,19 +3602,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3625,7 +3628,7 @@
         <v>45</v>
       </c>
       <c r="E52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F52">
         <v>0.7805</v>
@@ -3640,7 +3643,7 @@
         <v>6.875</v>
       </c>
       <c r="L52">
-        <v>4.956</v>
+        <v>3.892</v>
       </c>
       <c r="M52">
         <v>5.4537</v>
@@ -3655,19 +3658,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3684,13 +3687,13 @@
         <v>46</v>
       </c>
       <c r="E53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F53">
         <v>0.42</v>
       </c>
       <c r="G53">
-        <v>0.669669982920632</v>
+        <v>0.6694895935922111</v>
       </c>
       <c r="H53">
         <v>2.74</v>
@@ -3699,7 +3702,7 @@
         <v>2.25</v>
       </c>
       <c r="L53">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="M53">
         <v>1.5</v>
@@ -3714,19 +3717,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3743,7 +3746,7 @@
         <v>46</v>
       </c>
       <c r="E54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F54">
         <v>1.0125</v>
@@ -3758,7 +3761,7 @@
         <v>5.0395</v>
       </c>
       <c r="L54">
-        <v>3.68</v>
+        <v>2.66</v>
       </c>
       <c r="M54">
         <v>4.219</v>
@@ -3773,19 +3776,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3802,7 +3805,7 @@
         <v>46</v>
       </c>
       <c r="E55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F55">
         <v>1.0125</v>
@@ -3817,7 +3820,7 @@
         <v>5.0395</v>
       </c>
       <c r="L55">
-        <v>3.68</v>
+        <v>2.66</v>
       </c>
       <c r="M55">
         <v>4.219</v>
@@ -3832,19 +3835,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3861,13 +3864,13 @@
         <v>46</v>
       </c>
       <c r="E56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F56">
         <v>740</v>
       </c>
       <c r="G56">
-        <v>6725.99815088094</v>
+        <v>6681.57487995915</v>
       </c>
       <c r="H56">
         <v>104620</v>
@@ -3882,7 +3885,7 @@
         <v>83.3333333333333</v>
       </c>
       <c r="L56">
-        <v>583.5</v>
+        <v>625</v>
       </c>
       <c r="M56">
         <v>5350</v>
@@ -3897,19 +3900,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3926,13 +3929,13 @@
         <v>46</v>
       </c>
       <c r="E57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F57">
         <v>740</v>
       </c>
       <c r="G57">
-        <v>6725.99815088094</v>
+        <v>6681.57487995915</v>
       </c>
       <c r="H57">
         <v>104620</v>
@@ -3947,7 +3950,7 @@
         <v>83.3333333333333</v>
       </c>
       <c r="L57">
-        <v>583.5</v>
+        <v>625</v>
       </c>
       <c r="M57">
         <v>5350</v>
@@ -3962,19 +3965,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -3991,13 +3994,13 @@
         <v>46</v>
       </c>
       <c r="E58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F58">
         <v>740</v>
       </c>
       <c r="G58">
-        <v>6725.99815088094</v>
+        <v>6681.57487995915</v>
       </c>
       <c r="H58">
         <v>104620</v>
@@ -4012,7 +4015,7 @@
         <v>83.3333333333333</v>
       </c>
       <c r="L58">
-        <v>583.5</v>
+        <v>625</v>
       </c>
       <c r="M58">
         <v>5350</v>
@@ -4027,19 +4030,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4056,13 +4059,13 @@
         <v>46</v>
       </c>
       <c r="E59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F59">
         <v>740</v>
       </c>
       <c r="G59">
-        <v>6725.99815088094</v>
+        <v>6681.57487995915</v>
       </c>
       <c r="H59">
         <v>104620</v>
@@ -4077,7 +4080,7 @@
         <v>83.3333333333333</v>
       </c>
       <c r="L59">
-        <v>583.5</v>
+        <v>625</v>
       </c>
       <c r="M59">
         <v>5350</v>
@@ -4092,19 +4095,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4121,13 +4124,13 @@
         <v>46</v>
       </c>
       <c r="E60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F60">
         <v>0.65158</v>
       </c>
       <c r="G60">
-        <v>2.40651998582205</v>
+        <v>2.40652856165028</v>
       </c>
       <c r="H60">
         <v>19.1575234354967</v>
@@ -4151,19 +4154,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4180,13 +4183,13 @@
         <v>46</v>
       </c>
       <c r="E61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F61">
         <v>0.65158</v>
       </c>
       <c r="G61">
-        <v>2.40651998582205</v>
+        <v>2.40652856165028</v>
       </c>
       <c r="H61">
         <v>19.1575234354967</v>
@@ -4210,19 +4213,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4239,7 +4242,7 @@
         <v>46</v>
       </c>
       <c r="E62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F62">
         <v>1.9305</v>
@@ -4254,7 +4257,7 @@
         <v>11.6277</v>
       </c>
       <c r="L62">
-        <v>1.1</v>
+        <v>1.5728</v>
       </c>
       <c r="M62">
         <v>5.9169</v>
@@ -4269,19 +4272,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4298,7 +4301,7 @@
         <v>46</v>
       </c>
       <c r="E63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F63">
         <v>1.9305</v>
@@ -4313,7 +4316,7 @@
         <v>11.6277</v>
       </c>
       <c r="L63">
-        <v>1.1</v>
+        <v>1.5728</v>
       </c>
       <c r="M63">
         <v>5.9169</v>
@@ -4328,19 +4331,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4354,7 +4357,7 @@
         <v>46</v>
       </c>
       <c r="E64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F64">
         <v>4.40435</v>
@@ -4369,7 +4372,7 @@
         <v>22.7185</v>
       </c>
       <c r="L64">
-        <v>2.5725</v>
+        <v>2.9246</v>
       </c>
       <c r="M64">
         <v>13.5211</v>
@@ -4384,19 +4387,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U64" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4410,7 +4413,7 @@
         <v>46</v>
       </c>
       <c r="E65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F65">
         <v>4.40435</v>
@@ -4425,7 +4428,7 @@
         <v>22.7185</v>
       </c>
       <c r="L65">
-        <v>2.5725</v>
+        <v>2.9246</v>
       </c>
       <c r="M65">
         <v>13.5211</v>
@@ -4440,19 +4443,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4466,7 +4469,7 @@
         <v>46</v>
       </c>
       <c r="E66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F66">
         <v>8.265000000000001</v>
@@ -4481,7 +4484,7 @@
         <v>34.375</v>
       </c>
       <c r="L66">
-        <v>10.035</v>
+        <v>9.458500000000001</v>
       </c>
       <c r="M66">
         <v>18.8</v>
@@ -4496,19 +4499,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U66" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4522,7 +4525,7 @@
         <v>46</v>
       </c>
       <c r="E67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F67">
         <v>8.265000000000001</v>
@@ -4537,7 +4540,7 @@
         <v>34.375</v>
       </c>
       <c r="L67">
-        <v>10.035</v>
+        <v>9.458500000000001</v>
       </c>
       <c r="M67">
         <v>18.8</v>
@@ -4552,19 +4555,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4578,7 +4581,7 @@
         <v>46</v>
       </c>
       <c r="E68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F68">
         <v>1.364</v>
@@ -4593,7 +4596,7 @@
         <v>6.875</v>
       </c>
       <c r="L68">
-        <v>4.836</v>
+        <v>4.04</v>
       </c>
       <c r="M68">
         <v>5.193</v>
@@ -4608,19 +4611,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U68" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4634,7 +4637,7 @@
         <v>46</v>
       </c>
       <c r="E69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F69">
         <v>1.364</v>
@@ -4649,7 +4652,7 @@
         <v>6.875</v>
       </c>
       <c r="L69">
-        <v>4.836</v>
+        <v>4.04</v>
       </c>
       <c r="M69">
         <v>5.193</v>
@@ -4664,19 +4667,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S69" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U69" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4693,13 +4696,13 @@
         <v>47</v>
       </c>
       <c r="E70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F70">
         <v>0.4</v>
       </c>
       <c r="G70">
-        <v>0.602044222757091</v>
+        <v>0.601836501712244</v>
       </c>
       <c r="H70">
         <v>2.35</v>
@@ -4708,7 +4711,7 @@
         <v>2.085</v>
       </c>
       <c r="L70">
-        <v>0.175</v>
+        <v>0.27</v>
       </c>
       <c r="M70">
         <v>1.3115</v>
@@ -4723,19 +4726,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S70" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4752,7 +4755,7 @@
         <v>47</v>
       </c>
       <c r="E71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F71">
         <v>1.085</v>
@@ -4767,7 +4770,7 @@
         <v>5.0395</v>
       </c>
       <c r="L71">
-        <v>3.98</v>
+        <v>2.86</v>
       </c>
       <c r="M71">
         <v>4.219</v>
@@ -4782,19 +4785,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T71" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U71" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4811,7 +4814,7 @@
         <v>47</v>
       </c>
       <c r="E72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F72">
         <v>1.085</v>
@@ -4826,7 +4829,7 @@
         <v>5.0395</v>
       </c>
       <c r="L72">
-        <v>3.98</v>
+        <v>2.86</v>
       </c>
       <c r="M72">
         <v>4.219</v>
@@ -4841,19 +4844,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U72" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4870,13 +4873,13 @@
         <v>47</v>
       </c>
       <c r="E73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F73">
         <v>630</v>
       </c>
       <c r="G73">
-        <v>3728.38076281507</v>
+        <v>3684.42933969</v>
       </c>
       <c r="H73">
         <v>73000</v>
@@ -4891,13 +4894,13 @@
         <v>81.6666666666667</v>
       </c>
       <c r="L73">
-        <v>593.5</v>
+        <v>610</v>
       </c>
       <c r="M73">
         <v>3595.6</v>
       </c>
       <c r="N73">
-        <v>13668.42234</v>
+        <v>12486.84784</v>
       </c>
       <c r="O73">
         <v>1803578.705</v>
@@ -4906,19 +4909,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U73" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4935,13 +4938,13 @@
         <v>47</v>
       </c>
       <c r="E74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F74">
         <v>630</v>
       </c>
       <c r="G74">
-        <v>3728.38076281507</v>
+        <v>3684.42933969</v>
       </c>
       <c r="H74">
         <v>73000</v>
@@ -4956,13 +4959,13 @@
         <v>81.6666666666667</v>
       </c>
       <c r="L74">
-        <v>593.5</v>
+        <v>610</v>
       </c>
       <c r="M74">
         <v>3595.6</v>
       </c>
       <c r="N74">
-        <v>13668.42234</v>
+        <v>12486.84784</v>
       </c>
       <c r="O74">
         <v>1803578.705</v>
@@ -4971,19 +4974,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U74" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -5000,13 +5003,13 @@
         <v>47</v>
       </c>
       <c r="E75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F75">
         <v>630</v>
       </c>
       <c r="G75">
-        <v>3728.38076281507</v>
+        <v>3684.42933969</v>
       </c>
       <c r="H75">
         <v>73000</v>
@@ -5021,13 +5024,13 @@
         <v>81.6666666666667</v>
       </c>
       <c r="L75">
-        <v>593.5</v>
+        <v>610</v>
       </c>
       <c r="M75">
         <v>3595.6</v>
       </c>
       <c r="N75">
-        <v>13668.42234</v>
+        <v>12486.84784</v>
       </c>
       <c r="O75">
         <v>1803578.705</v>
@@ -5036,19 +5039,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R75" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S75" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T75" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U75" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5065,13 +5068,13 @@
         <v>47</v>
       </c>
       <c r="E76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F76">
         <v>630</v>
       </c>
       <c r="G76">
-        <v>3728.38076281507</v>
+        <v>3684.42933969</v>
       </c>
       <c r="H76">
         <v>73000</v>
@@ -5086,13 +5089,13 @@
         <v>81.6666666666667</v>
       </c>
       <c r="L76">
-        <v>593.5</v>
+        <v>610</v>
       </c>
       <c r="M76">
         <v>3595.6</v>
       </c>
       <c r="N76">
-        <v>13668.42234</v>
+        <v>12486.84784</v>
       </c>
       <c r="O76">
         <v>1803578.705</v>
@@ -5101,19 +5104,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S76" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T76" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U76" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5130,13 +5133,13 @@
         <v>47</v>
       </c>
       <c r="E77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F77">
         <v>0.53179</v>
       </c>
       <c r="G77">
-        <v>1.7722380311883</v>
+        <v>1.77226990486442</v>
       </c>
       <c r="H77">
         <v>19.1575234354967</v>
@@ -5145,7 +5148,7 @@
         <v>8.78556</v>
       </c>
       <c r="L77">
-        <v>0.36646</v>
+        <v>0.47782</v>
       </c>
       <c r="M77">
         <v>2.7434</v>
@@ -5160,19 +5163,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T77" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U77" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5189,13 +5192,13 @@
         <v>47</v>
       </c>
       <c r="E78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F78">
         <v>0.53179</v>
       </c>
       <c r="G78">
-        <v>1.7722380311883</v>
+        <v>1.77226990486442</v>
       </c>
       <c r="H78">
         <v>19.1575234354967</v>
@@ -5204,7 +5207,7 @@
         <v>8.78556</v>
       </c>
       <c r="L78">
-        <v>0.36646</v>
+        <v>0.47782</v>
       </c>
       <c r="M78">
         <v>2.7434</v>
@@ -5219,19 +5222,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U78" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5248,7 +5251,7 @@
         <v>47</v>
       </c>
       <c r="E79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F79">
         <v>2.0932</v>
@@ -5263,7 +5266,7 @@
         <v>6.845</v>
       </c>
       <c r="L79">
-        <v>0.83705</v>
+        <v>1.75615</v>
       </c>
       <c r="M79">
         <v>5.67354</v>
@@ -5278,19 +5281,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S79" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T79" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U79" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5307,7 +5310,7 @@
         <v>47</v>
       </c>
       <c r="E80" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F80">
         <v>2.0932</v>
@@ -5322,7 +5325,7 @@
         <v>6.845</v>
       </c>
       <c r="L80">
-        <v>0.83705</v>
+        <v>1.75615</v>
       </c>
       <c r="M80">
         <v>5.67354</v>
@@ -5337,19 +5340,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S80" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T80" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U80" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5363,7 +5366,7 @@
         <v>47</v>
       </c>
       <c r="E81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F81">
         <v>3.9175</v>
@@ -5378,7 +5381,7 @@
         <v>17.515</v>
       </c>
       <c r="L81">
-        <v>2.4058</v>
+        <v>2.815</v>
       </c>
       <c r="M81">
         <v>10.56351</v>
@@ -5393,19 +5396,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q81" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S81" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T81" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U81" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5419,7 +5422,7 @@
         <v>47</v>
       </c>
       <c r="E82" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F82">
         <v>3.9175</v>
@@ -5434,7 +5437,7 @@
         <v>17.515</v>
       </c>
       <c r="L82">
-        <v>2.4058</v>
+        <v>2.815</v>
       </c>
       <c r="M82">
         <v>10.56351</v>
@@ -5449,19 +5452,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R82" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U82" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5475,7 +5478,7 @@
         <v>47</v>
       </c>
       <c r="E83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F83">
         <v>7.29</v>
@@ -5490,7 +5493,7 @@
         <v>29.835</v>
       </c>
       <c r="L83">
-        <v>9.635</v>
+        <v>9.0585</v>
       </c>
       <c r="M83">
         <v>15.617</v>
@@ -5505,19 +5508,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S83" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U83" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5531,7 +5534,7 @@
         <v>47</v>
       </c>
       <c r="E84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F84">
         <v>7.29</v>
@@ -5546,7 +5549,7 @@
         <v>29.835</v>
       </c>
       <c r="L84">
-        <v>9.635</v>
+        <v>9.0585</v>
       </c>
       <c r="M84">
         <v>15.617</v>
@@ -5561,19 +5564,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R84" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S84" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T84" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U84" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5587,7 +5590,7 @@
         <v>47</v>
       </c>
       <c r="E85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F85">
         <v>1.409</v>
@@ -5602,7 +5605,7 @@
         <v>6.69</v>
       </c>
       <c r="L85">
-        <v>5.01</v>
+        <v>4.04</v>
       </c>
       <c r="M85">
         <v>5.183</v>
@@ -5617,19 +5620,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U85" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -5643,7 +5646,7 @@
         <v>47</v>
       </c>
       <c r="E86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F86">
         <v>1.409</v>
@@ -5658,7 +5661,7 @@
         <v>6.69</v>
       </c>
       <c r="L86">
-        <v>5.01</v>
+        <v>4.04</v>
       </c>
       <c r="M86">
         <v>5.183</v>
@@ -5673,19 +5676,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T86" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U86" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -5702,7 +5705,7 @@
         <v>48</v>
       </c>
       <c r="E87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F87">
         <v>0.9385</v>
@@ -5717,7 +5720,7 @@
         <v>4.776</v>
       </c>
       <c r="L87">
-        <v>3.34</v>
+        <v>2.105</v>
       </c>
       <c r="M87">
         <v>3.902</v>
@@ -5732,19 +5735,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R87" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U87" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -5761,7 +5764,7 @@
         <v>48</v>
       </c>
       <c r="E88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F88">
         <v>0.9385</v>
@@ -5776,7 +5779,7 @@
         <v>4.776</v>
       </c>
       <c r="L88">
-        <v>3.34</v>
+        <v>2.105</v>
       </c>
       <c r="M88">
         <v>3.902</v>
@@ -5791,19 +5794,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T88" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U88" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -5820,13 +5823,13 @@
         <v>48</v>
       </c>
       <c r="E89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F89">
         <v>718</v>
       </c>
       <c r="G89">
-        <v>3733.21409614841</v>
+        <v>3689.26267302333</v>
       </c>
       <c r="H89">
         <v>73000</v>
@@ -5841,13 +5844,13 @@
         <v>83.3333333333333</v>
       </c>
       <c r="L89">
-        <v>593.5</v>
+        <v>615</v>
       </c>
       <c r="M89">
         <v>3205.6</v>
       </c>
       <c r="N89">
-        <v>13668.42234</v>
+        <v>12486.84784</v>
       </c>
       <c r="O89">
         <v>1803578.705</v>
@@ -5856,19 +5859,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q89" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R89" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T89" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U89" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -5885,13 +5888,13 @@
         <v>48</v>
       </c>
       <c r="E90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F90">
         <v>718</v>
       </c>
       <c r="G90">
-        <v>3733.21409614841</v>
+        <v>3689.26267302333</v>
       </c>
       <c r="H90">
         <v>73000</v>
@@ -5906,13 +5909,13 @@
         <v>83.3333333333333</v>
       </c>
       <c r="L90">
-        <v>593.5</v>
+        <v>615</v>
       </c>
       <c r="M90">
         <v>3205.6</v>
       </c>
       <c r="N90">
-        <v>13668.42234</v>
+        <v>12486.84784</v>
       </c>
       <c r="O90">
         <v>1803578.705</v>
@@ -5921,19 +5924,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R90" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S90" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U90" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -5950,13 +5953,13 @@
         <v>48</v>
       </c>
       <c r="E91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F91">
         <v>718</v>
       </c>
       <c r="G91">
-        <v>3733.21409614841</v>
+        <v>3689.26267302333</v>
       </c>
       <c r="H91">
         <v>73000</v>
@@ -5971,13 +5974,13 @@
         <v>83.3333333333333</v>
       </c>
       <c r="L91">
-        <v>593.5</v>
+        <v>615</v>
       </c>
       <c r="M91">
         <v>3205.6</v>
       </c>
       <c r="N91">
-        <v>13668.42234</v>
+        <v>12486.84784</v>
       </c>
       <c r="O91">
         <v>1803578.705</v>
@@ -5986,19 +5989,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R91" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S91" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T91" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U91" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -6015,13 +6018,13 @@
         <v>48</v>
       </c>
       <c r="E92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F92">
         <v>718</v>
       </c>
       <c r="G92">
-        <v>3733.21409614841</v>
+        <v>3689.26267302333</v>
       </c>
       <c r="H92">
         <v>73000</v>
@@ -6036,13 +6039,13 @@
         <v>83.3333333333333</v>
       </c>
       <c r="L92">
-        <v>593.5</v>
+        <v>615</v>
       </c>
       <c r="M92">
         <v>3205.6</v>
       </c>
       <c r="N92">
-        <v>13668.42234</v>
+        <v>12486.84784</v>
       </c>
       <c r="O92">
         <v>1803578.705</v>
@@ -6051,19 +6054,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T92" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U92" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6080,13 +6083,13 @@
         <v>48</v>
       </c>
       <c r="E93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F93">
         <v>0.59218</v>
       </c>
       <c r="G93">
-        <v>1.66970967354946</v>
+        <v>1.66974210641288</v>
       </c>
       <c r="H93">
         <v>16.5134811893951</v>
@@ -6095,7 +6098,7 @@
         <v>8.98358</v>
       </c>
       <c r="L93">
-        <v>0.54001</v>
+        <v>0.54262</v>
       </c>
       <c r="M93">
         <v>2.61362</v>
@@ -6110,19 +6113,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R93" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S93" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T93" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U93" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6139,13 +6142,13 @@
         <v>48</v>
       </c>
       <c r="E94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F94">
         <v>0.59218</v>
       </c>
       <c r="G94">
-        <v>1.66970967354946</v>
+        <v>1.66974210641288</v>
       </c>
       <c r="H94">
         <v>16.5134811893951</v>
@@ -6154,7 +6157,7 @@
         <v>8.98358</v>
       </c>
       <c r="L94">
-        <v>0.54001</v>
+        <v>0.54262</v>
       </c>
       <c r="M94">
         <v>2.61362</v>
@@ -6169,19 +6172,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S94" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U94" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6198,7 +6201,7 @@
         <v>48</v>
       </c>
       <c r="E95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F95">
         <v>2.27</v>
@@ -6213,7 +6216,7 @@
         <v>6.53</v>
       </c>
       <c r="L95">
-        <v>1.36715</v>
+        <v>1.81115</v>
       </c>
       <c r="M95">
         <v>4.44066</v>
@@ -6228,19 +6231,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R95" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S95" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T95" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U95" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6257,7 +6260,7 @@
         <v>48</v>
       </c>
       <c r="E96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F96">
         <v>2.27</v>
@@ -6272,7 +6275,7 @@
         <v>6.53</v>
       </c>
       <c r="L96">
-        <v>1.36715</v>
+        <v>1.81115</v>
       </c>
       <c r="M96">
         <v>4.44066</v>
@@ -6287,19 +6290,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R96" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S96" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T96" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U96" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6313,7 +6316,7 @@
         <v>48</v>
       </c>
       <c r="E97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F97">
         <v>3.605</v>
@@ -6328,7 +6331,7 @@
         <v>17.515</v>
       </c>
       <c r="L97">
-        <v>2.555</v>
+        <v>2.8896</v>
       </c>
       <c r="M97">
         <v>10.094</v>
@@ -6343,19 +6346,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R97" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S97" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T97" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U97" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6369,7 +6372,7 @@
         <v>48</v>
       </c>
       <c r="E98" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F98">
         <v>3.605</v>
@@ -6384,7 +6387,7 @@
         <v>17.515</v>
       </c>
       <c r="L98">
-        <v>2.555</v>
+        <v>2.8896</v>
       </c>
       <c r="M98">
         <v>10.094</v>
@@ -6399,19 +6402,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R98" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T98" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U98" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -6425,7 +6428,7 @@
         <v>48</v>
       </c>
       <c r="E99" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F99">
         <v>6.74</v>
@@ -6440,7 +6443,7 @@
         <v>24</v>
       </c>
       <c r="L99">
-        <v>8.855</v>
+        <v>8.4025</v>
       </c>
       <c r="M99">
         <v>12.73</v>
@@ -6455,19 +6458,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U99" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -6481,7 +6484,7 @@
         <v>48</v>
       </c>
       <c r="E100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F100">
         <v>6.74</v>
@@ -6496,7 +6499,7 @@
         <v>24</v>
       </c>
       <c r="L100">
-        <v>8.855</v>
+        <v>8.4025</v>
       </c>
       <c r="M100">
         <v>12.73</v>
@@ -6511,19 +6514,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q100" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R100" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T100" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U100" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -6537,7 +6540,7 @@
         <v>48</v>
       </c>
       <c r="E101" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F101">
         <v>1.364</v>
@@ -6552,7 +6555,7 @@
         <v>5.59</v>
       </c>
       <c r="L101">
-        <v>4.671</v>
+        <v>3.82</v>
       </c>
       <c r="M101">
         <v>5.102</v>
@@ -6567,19 +6570,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R101" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U101" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -6593,7 +6596,7 @@
         <v>48</v>
       </c>
       <c r="E102" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F102">
         <v>1.364</v>
@@ -6608,7 +6611,7 @@
         <v>5.59</v>
       </c>
       <c r="L102">
-        <v>4.671</v>
+        <v>3.82</v>
       </c>
       <c r="M102">
         <v>5.102</v>
@@ -6623,19 +6626,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q102" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S102" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T102" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U102" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -6652,7 +6655,7 @@
         <v>49</v>
       </c>
       <c r="E103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F103">
         <v>1.115</v>
@@ -6667,7 +6670,7 @@
         <v>4.635</v>
       </c>
       <c r="L103">
-        <v>3.845</v>
+        <v>3.185</v>
       </c>
       <c r="M103">
         <v>4.109</v>
@@ -6682,19 +6685,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q103" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R103" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S103" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T103" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U103" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -6711,7 +6714,7 @@
         <v>49</v>
       </c>
       <c r="E104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F104">
         <v>1.115</v>
@@ -6726,7 +6729,7 @@
         <v>4.635</v>
       </c>
       <c r="L104">
-        <v>3.845</v>
+        <v>3.185</v>
       </c>
       <c r="M104">
         <v>4.109</v>
@@ -6741,19 +6744,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R104" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T104" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U104" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -6770,19 +6773,19 @@
         <v>49</v>
       </c>
       <c r="E105" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F105">
         <v>740</v>
       </c>
       <c r="G105">
-        <v>3603.96409614841</v>
+        <v>3560.01267302333</v>
       </c>
       <c r="H105">
         <v>73000</v>
       </c>
       <c r="I105">
-        <v>15977.44453</v>
+        <v>15500</v>
       </c>
       <c r="J105">
         <v>63.3333333333333</v>
@@ -6791,13 +6794,13 @@
         <v>86.6666666666667</v>
       </c>
       <c r="L105">
-        <v>555</v>
+        <v>605</v>
       </c>
       <c r="M105">
         <v>3990</v>
       </c>
       <c r="N105">
-        <v>12065.18701</v>
+        <v>10876.32523</v>
       </c>
       <c r="O105">
         <v>1803578.705</v>
@@ -6806,19 +6809,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R105" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T105" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U105" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -6835,19 +6838,19 @@
         <v>49</v>
       </c>
       <c r="E106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F106">
         <v>740</v>
       </c>
       <c r="G106">
-        <v>3603.96409614841</v>
+        <v>3560.01267302333</v>
       </c>
       <c r="H106">
         <v>73000</v>
       </c>
       <c r="I106">
-        <v>15977.44453</v>
+        <v>15500</v>
       </c>
       <c r="J106">
         <v>63.3333333333333</v>
@@ -6856,13 +6859,13 @@
         <v>86.6666666666667</v>
       </c>
       <c r="L106">
-        <v>555</v>
+        <v>605</v>
       </c>
       <c r="M106">
         <v>3990</v>
       </c>
       <c r="N106">
-        <v>12065.18701</v>
+        <v>10876.32523</v>
       </c>
       <c r="O106">
         <v>1803578.705</v>
@@ -6871,19 +6874,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q106" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S106" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T106" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U106" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -6900,19 +6903,19 @@
         <v>49</v>
       </c>
       <c r="E107" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F107">
         <v>740</v>
       </c>
       <c r="G107">
-        <v>3603.96409614841</v>
+        <v>3560.01267302333</v>
       </c>
       <c r="H107">
         <v>73000</v>
       </c>
       <c r="I107">
-        <v>15977.44453</v>
+        <v>15500</v>
       </c>
       <c r="J107">
         <v>63.3333333333333</v>
@@ -6921,13 +6924,13 @@
         <v>86.6666666666667</v>
       </c>
       <c r="L107">
-        <v>555</v>
+        <v>605</v>
       </c>
       <c r="M107">
         <v>3990</v>
       </c>
       <c r="N107">
-        <v>12065.18701</v>
+        <v>10876.32523</v>
       </c>
       <c r="O107">
         <v>1803578.705</v>
@@ -6936,19 +6939,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q107" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R107" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S107" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T107" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U107" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -6965,19 +6968,19 @@
         <v>49</v>
       </c>
       <c r="E108" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F108">
         <v>740</v>
       </c>
       <c r="G108">
-        <v>3603.96409614841</v>
+        <v>3560.01267302333</v>
       </c>
       <c r="H108">
         <v>73000</v>
       </c>
       <c r="I108">
-        <v>15977.44453</v>
+        <v>15500</v>
       </c>
       <c r="J108">
         <v>63.3333333333333</v>
@@ -6986,13 +6989,13 @@
         <v>86.6666666666667</v>
       </c>
       <c r="L108">
-        <v>555</v>
+        <v>605</v>
       </c>
       <c r="M108">
         <v>3990</v>
       </c>
       <c r="N108">
-        <v>12065.18701</v>
+        <v>10876.32523</v>
       </c>
       <c r="O108">
         <v>1803578.705</v>
@@ -7001,19 +7004,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q108" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S108" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T108" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U108" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -7030,13 +7033,13 @@
         <v>49</v>
       </c>
       <c r="E109" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F109">
         <v>0.5374100000000001</v>
       </c>
       <c r="G109">
-        <v>1.24855529830633</v>
+        <v>1.24859671141398</v>
       </c>
       <c r="H109">
         <v>14.8809266683637</v>
@@ -7045,7 +7048,7 @@
         <v>5.74569</v>
       </c>
       <c r="L109">
-        <v>0.74991</v>
+        <v>0.68941</v>
       </c>
       <c r="M109">
         <v>1.86658</v>
@@ -7060,19 +7063,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q109" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S109" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T109" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U109" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -7089,13 +7092,13 @@
         <v>49</v>
       </c>
       <c r="E110" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F110">
         <v>0.5374100000000001</v>
       </c>
       <c r="G110">
-        <v>1.24855529830633</v>
+        <v>1.24859671141398</v>
       </c>
       <c r="H110">
         <v>14.8809266683637</v>
@@ -7104,7 +7107,7 @@
         <v>5.74569</v>
       </c>
       <c r="L110">
-        <v>0.74991</v>
+        <v>0.68941</v>
       </c>
       <c r="M110">
         <v>1.86658</v>
@@ -7119,19 +7122,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R110" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S110" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T110" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U110" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -7148,7 +7151,7 @@
         <v>49</v>
       </c>
       <c r="E111" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F111">
         <v>2.41</v>
@@ -7163,7 +7166,7 @@
         <v>6.845</v>
       </c>
       <c r="L111">
-        <v>1.396</v>
+        <v>2.0505</v>
       </c>
       <c r="M111">
         <v>4.994</v>
@@ -7178,19 +7181,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R111" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S111" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T111" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U111" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7207,7 +7210,7 @@
         <v>49</v>
       </c>
       <c r="E112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F112">
         <v>2.41</v>
@@ -7222,7 +7225,7 @@
         <v>6.845</v>
       </c>
       <c r="L112">
-        <v>1.396</v>
+        <v>2.0505</v>
       </c>
       <c r="M112">
         <v>4.994</v>
@@ -7237,19 +7240,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R112" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S112" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T112" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U112" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -7263,7 +7266,7 @@
         <v>49</v>
       </c>
       <c r="E113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F113">
         <v>3.475</v>
@@ -7278,7 +7281,7 @@
         <v>14.44595</v>
       </c>
       <c r="L113">
-        <v>2.555</v>
+        <v>3.075</v>
       </c>
       <c r="M113">
         <v>7.26468</v>
@@ -7293,19 +7296,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q113" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R113" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S113" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T113" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U113" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -7319,7 +7322,7 @@
         <v>49</v>
       </c>
       <c r="E114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F114">
         <v>3.475</v>
@@ -7334,7 +7337,7 @@
         <v>14.44595</v>
       </c>
       <c r="L114">
-        <v>2.555</v>
+        <v>3.075</v>
       </c>
       <c r="M114">
         <v>7.26468</v>
@@ -7349,19 +7352,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q114" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R114" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S114" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T114" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U114" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -7375,7 +7378,7 @@
         <v>49</v>
       </c>
       <c r="E115" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F115">
         <v>7.015</v>
@@ -7390,7 +7393,7 @@
         <v>19.2</v>
       </c>
       <c r="L115">
-        <v>9.255000000000001</v>
+        <v>8.855</v>
       </c>
       <c r="M115">
         <v>11.57</v>
@@ -7405,19 +7408,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q115" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R115" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S115" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T115" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U115" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -7431,7 +7434,7 @@
         <v>49</v>
       </c>
       <c r="E116" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F116">
         <v>7.015</v>
@@ -7446,7 +7449,7 @@
         <v>19.2</v>
       </c>
       <c r="L116">
-        <v>9.255000000000001</v>
+        <v>8.855</v>
       </c>
       <c r="M116">
         <v>11.57</v>
@@ -7461,19 +7464,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q116" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R116" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S116" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T116" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U116" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -7487,7 +7490,7 @@
         <v>49</v>
       </c>
       <c r="E117" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F117">
         <v>1.4855</v>
@@ -7502,7 +7505,7 @@
         <v>5.88</v>
       </c>
       <c r="L117">
-        <v>5.095</v>
+        <v>4.22</v>
       </c>
       <c r="M117">
         <v>5.109</v>
@@ -7517,19 +7520,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q117" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R117" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S117" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U117" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -7543,7 +7546,7 @@
         <v>49</v>
       </c>
       <c r="E118" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F118">
         <v>1.4855</v>
@@ -7558,7 +7561,7 @@
         <v>5.88</v>
       </c>
       <c r="L118">
-        <v>5.095</v>
+        <v>4.22</v>
       </c>
       <c r="M118">
         <v>5.109</v>
@@ -7573,19 +7576,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q118" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R118" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S118" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T118" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U118" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -7602,7 +7605,7 @@
         <v>50</v>
       </c>
       <c r="E119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F119">
         <v>1.09</v>
@@ -7617,7 +7620,7 @@
         <v>4.6395</v>
       </c>
       <c r="L119">
-        <v>3.585</v>
+        <v>3.27</v>
       </c>
       <c r="M119">
         <v>4.0329</v>
@@ -7632,19 +7635,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q119" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R119" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S119" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T119" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U119" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -7661,7 +7664,7 @@
         <v>50</v>
       </c>
       <c r="E120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F120">
         <v>1.09</v>
@@ -7676,7 +7679,7 @@
         <v>4.6395</v>
       </c>
       <c r="L120">
-        <v>3.585</v>
+        <v>3.27</v>
       </c>
       <c r="M120">
         <v>4.0329</v>
@@ -7691,19 +7694,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q120" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R120" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S120" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T120" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U120" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -7720,13 +7723,13 @@
         <v>50</v>
       </c>
       <c r="E121" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F121">
         <v>740</v>
       </c>
       <c r="G121">
-        <v>3377.27045281437</v>
+        <v>3377.75029803137</v>
       </c>
       <c r="H121">
         <v>73000</v>
@@ -7741,13 +7744,13 @@
         <v>86.4406779661017</v>
       </c>
       <c r="L121">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="M121">
         <v>2741</v>
       </c>
       <c r="N121">
-        <v>8963.48624</v>
+        <v>8985.568719999999</v>
       </c>
       <c r="O121">
         <v>1803578.705</v>
@@ -7756,19 +7759,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R121" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S121" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T121" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U121" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -7785,13 +7788,13 @@
         <v>50</v>
       </c>
       <c r="E122" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F122">
         <v>740</v>
       </c>
       <c r="G122">
-        <v>3377.27045281437</v>
+        <v>3377.75029803137</v>
       </c>
       <c r="H122">
         <v>73000</v>
@@ -7806,13 +7809,13 @@
         <v>86.4406779661017</v>
       </c>
       <c r="L122">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="M122">
         <v>2741</v>
       </c>
       <c r="N122">
-        <v>8963.48624</v>
+        <v>8985.568719999999</v>
       </c>
       <c r="O122">
         <v>1803578.705</v>
@@ -7821,19 +7824,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q122" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S122" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T122" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U122" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -7850,13 +7853,13 @@
         <v>50</v>
       </c>
       <c r="E123" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F123">
         <v>740</v>
       </c>
       <c r="G123">
-        <v>3377.27045281437</v>
+        <v>3377.75029803137</v>
       </c>
       <c r="H123">
         <v>73000</v>
@@ -7871,13 +7874,13 @@
         <v>86.4406779661017</v>
       </c>
       <c r="L123">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="M123">
         <v>2741</v>
       </c>
       <c r="N123">
-        <v>8963.48624</v>
+        <v>8985.568719999999</v>
       </c>
       <c r="O123">
         <v>1803578.705</v>
@@ -7886,19 +7889,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q123" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R123" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S123" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T123" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U123" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -7915,13 +7918,13 @@
         <v>50</v>
       </c>
       <c r="E124" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F124">
         <v>740</v>
       </c>
       <c r="G124">
-        <v>3377.27045281437</v>
+        <v>3377.75029803137</v>
       </c>
       <c r="H124">
         <v>73000</v>
@@ -7936,13 +7939,13 @@
         <v>86.4406779661017</v>
       </c>
       <c r="L124">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="M124">
         <v>2741</v>
       </c>
       <c r="N124">
-        <v>8963.48624</v>
+        <v>8985.568719999999</v>
       </c>
       <c r="O124">
         <v>1803578.705</v>
@@ -7951,19 +7954,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q124" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R124" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S124" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U124" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="125" spans="1:21">
@@ -7980,13 +7983,13 @@
         <v>50</v>
       </c>
       <c r="E125" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F125">
         <v>0.4631</v>
       </c>
       <c r="G125">
-        <v>1.21549519444993</v>
+        <v>1.21553523040196</v>
       </c>
       <c r="H125">
         <v>14.8809266683637</v>
@@ -7995,7 +7998,7 @@
         <v>6.09275</v>
       </c>
       <c r="L125">
-        <v>0.74991</v>
+        <v>0.68941</v>
       </c>
       <c r="M125">
         <v>1.72709</v>
@@ -8010,19 +8013,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q125" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R125" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S125" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T125" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U125" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="126" spans="1:21">
@@ -8039,13 +8042,13 @@
         <v>50</v>
       </c>
       <c r="E126" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F126">
         <v>0.4631</v>
       </c>
       <c r="G126">
-        <v>1.21549519444993</v>
+        <v>1.21553523040196</v>
       </c>
       <c r="H126">
         <v>14.8809266683637</v>
@@ -8054,7 +8057,7 @@
         <v>6.09275</v>
       </c>
       <c r="L126">
-        <v>0.74991</v>
+        <v>0.68941</v>
       </c>
       <c r="M126">
         <v>1.72709</v>
@@ -8069,19 +8072,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q126" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R126" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S126" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T126" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U126" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="127" spans="1:21">
@@ -8098,13 +8101,13 @@
         <v>50</v>
       </c>
       <c r="E127" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F127">
         <v>1.87</v>
       </c>
       <c r="G127">
-        <v>2.6883512651708</v>
+        <v>2.68830148252438</v>
       </c>
       <c r="H127">
         <v>10.5</v>
@@ -8113,7 +8116,7 @@
         <v>6.8715</v>
       </c>
       <c r="L127">
-        <v>1.206</v>
+        <v>1.73</v>
       </c>
       <c r="M127">
         <v>5.0704</v>
@@ -8128,19 +8131,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R127" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S127" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T127" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U127" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="128" spans="1:21">
@@ -8157,13 +8160,13 @@
         <v>50</v>
       </c>
       <c r="E128" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F128">
         <v>1.87</v>
       </c>
       <c r="G128">
-        <v>2.6883512651708</v>
+        <v>2.68830148252438</v>
       </c>
       <c r="H128">
         <v>10.5</v>
@@ -8172,7 +8175,7 @@
         <v>6.8715</v>
       </c>
       <c r="L128">
-        <v>1.206</v>
+        <v>1.73</v>
       </c>
       <c r="M128">
         <v>5.0704</v>
@@ -8187,19 +8190,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q128" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S128" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T128" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U128" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="129" spans="1:21">
@@ -8213,7 +8216,7 @@
         <v>50</v>
       </c>
       <c r="E129" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F129">
         <v>3.15</v>
@@ -8228,7 +8231,7 @@
         <v>14.517</v>
       </c>
       <c r="L129">
-        <v>2.555</v>
+        <v>2.85</v>
       </c>
       <c r="M129">
         <v>7.02335</v>
@@ -8243,19 +8246,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q129" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R129" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S129" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T129" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U129" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="130" spans="1:21">
@@ -8269,7 +8272,7 @@
         <v>50</v>
       </c>
       <c r="E130" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F130">
         <v>3.15</v>
@@ -8284,7 +8287,7 @@
         <v>14.517</v>
       </c>
       <c r="L130">
-        <v>2.555</v>
+        <v>2.85</v>
       </c>
       <c r="M130">
         <v>7.02335</v>
@@ -8299,19 +8302,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q130" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R130" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S130" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T130" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U130" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -8325,7 +8328,7 @@
         <v>50</v>
       </c>
       <c r="E131" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F131">
         <v>6.44</v>
@@ -8340,7 +8343,7 @@
         <v>19.3</v>
       </c>
       <c r="L131">
-        <v>9.199999999999999</v>
+        <v>9.35</v>
       </c>
       <c r="M131">
         <v>12.294</v>
@@ -8355,19 +8358,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q131" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R131" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S131" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T131" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U131" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="132" spans="1:21">
@@ -8381,7 +8384,7 @@
         <v>50</v>
       </c>
       <c r="E132" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F132">
         <v>6.44</v>
@@ -8396,7 +8399,7 @@
         <v>19.3</v>
       </c>
       <c r="L132">
-        <v>9.199999999999999</v>
+        <v>9.35</v>
       </c>
       <c r="M132">
         <v>12.294</v>
@@ -8411,19 +8414,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q132" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R132" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S132" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T132" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U132" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="133" spans="1:21">
@@ -8437,7 +8440,7 @@
         <v>50</v>
       </c>
       <c r="E133" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F133">
         <v>1.49</v>
@@ -8452,7 +8455,7 @@
         <v>5.903</v>
       </c>
       <c r="L133">
-        <v>4.975</v>
+        <v>4.35</v>
       </c>
       <c r="M133">
         <v>5.0947</v>
@@ -8467,19 +8470,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q133" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R133" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S133" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T133" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U133" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="134" spans="1:21">
@@ -8493,7 +8496,7 @@
         <v>50</v>
       </c>
       <c r="E134" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F134">
         <v>1.49</v>
@@ -8508,7 +8511,7 @@
         <v>5.903</v>
       </c>
       <c r="L134">
-        <v>4.975</v>
+        <v>4.35</v>
       </c>
       <c r="M134">
         <v>5.0947</v>
@@ -8523,19 +8526,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q134" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R134" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S134" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T134" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U134" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="135" spans="1:21">
@@ -8552,7 +8555,7 @@
         <v>51</v>
       </c>
       <c r="E135" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F135">
         <v>0.923</v>
@@ -8567,7 +8570,7 @@
         <v>4.6395</v>
       </c>
       <c r="L135">
-        <v>3.46</v>
+        <v>3.11</v>
       </c>
       <c r="M135">
         <v>4.0982</v>
@@ -8582,19 +8585,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q135" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R135" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S135" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T135" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U135" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="136" spans="1:21">
@@ -8611,7 +8614,7 @@
         <v>51</v>
       </c>
       <c r="E136" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F136">
         <v>0.923</v>
@@ -8626,7 +8629,7 @@
         <v>4.6395</v>
       </c>
       <c r="L136">
-        <v>3.46</v>
+        <v>3.11</v>
       </c>
       <c r="M136">
         <v>4.0982</v>
@@ -8641,19 +8644,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q136" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R136" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S136" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T136" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U136" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="137" spans="1:21">
@@ -8670,13 +8673,13 @@
         <v>51</v>
       </c>
       <c r="E137" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F137">
         <v>670</v>
       </c>
       <c r="G137">
-        <v>1567.21960535674</v>
+        <v>1567.69945057375</v>
       </c>
       <c r="H137">
         <v>18000</v>
@@ -8691,7 +8694,7 @@
         <v>81.3559322033898</v>
       </c>
       <c r="L137">
-        <v>780</v>
+        <v>720</v>
       </c>
       <c r="M137">
         <v>2500</v>
@@ -8706,19 +8709,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q137" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R137" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S137" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T137" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U137" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="138" spans="1:21">
@@ -8735,13 +8738,13 @@
         <v>51</v>
       </c>
       <c r="E138" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F138">
         <v>670</v>
       </c>
       <c r="G138">
-        <v>1567.21960535674</v>
+        <v>1567.69945057375</v>
       </c>
       <c r="H138">
         <v>18000</v>
@@ -8756,7 +8759,7 @@
         <v>81.3559322033898</v>
       </c>
       <c r="L138">
-        <v>780</v>
+        <v>720</v>
       </c>
       <c r="M138">
         <v>2500</v>
@@ -8771,19 +8774,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R138" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T138" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U138" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="139" spans="1:21">
@@ -8800,13 +8803,13 @@
         <v>51</v>
       </c>
       <c r="E139" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F139">
         <v>670</v>
       </c>
       <c r="G139">
-        <v>1567.21960535674</v>
+        <v>1567.69945057375</v>
       </c>
       <c r="H139">
         <v>18000</v>
@@ -8821,7 +8824,7 @@
         <v>81.3559322033898</v>
       </c>
       <c r="L139">
-        <v>780</v>
+        <v>720</v>
       </c>
       <c r="M139">
         <v>2500</v>
@@ -8836,19 +8839,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q139" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S139" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T139" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U139" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="140" spans="1:21">
@@ -8865,13 +8868,13 @@
         <v>51</v>
       </c>
       <c r="E140" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F140">
         <v>670</v>
       </c>
       <c r="G140">
-        <v>1567.21960535674</v>
+        <v>1567.69945057375</v>
       </c>
       <c r="H140">
         <v>18000</v>
@@ -8886,7 +8889,7 @@
         <v>81.3559322033898</v>
       </c>
       <c r="L140">
-        <v>780</v>
+        <v>720</v>
       </c>
       <c r="M140">
         <v>2500</v>
@@ -8901,19 +8904,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q140" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R140" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S140" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T140" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U140" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="141" spans="1:21">
@@ -8930,13 +8933,13 @@
         <v>51</v>
       </c>
       <c r="E141" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F141">
         <v>0.36003</v>
       </c>
       <c r="G141">
-        <v>0.965263099102447</v>
+        <v>0.9652987639730231</v>
       </c>
       <c r="H141">
         <v>14.8809266683637</v>
@@ -8945,7 +8948,7 @@
         <v>3.18857</v>
       </c>
       <c r="L141">
-        <v>0.5374100000000001</v>
+        <v>0.47521</v>
       </c>
       <c r="M141">
         <v>1.52068</v>
@@ -8960,19 +8963,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q141" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R141" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S141" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T141" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U141" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="142" spans="1:21">
@@ -8989,13 +8992,13 @@
         <v>51</v>
       </c>
       <c r="E142" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F142">
         <v>0.36003</v>
       </c>
       <c r="G142">
-        <v>0.965263099102447</v>
+        <v>0.9652987639730231</v>
       </c>
       <c r="H142">
         <v>14.8809266683637</v>
@@ -9004,7 +9007,7 @@
         <v>3.18857</v>
       </c>
       <c r="L142">
-        <v>0.5374100000000001</v>
+        <v>0.47521</v>
       </c>
       <c r="M142">
         <v>1.52068</v>
@@ -9019,19 +9022,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q142" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R142" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S142" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T142" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U142" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="143" spans="1:21">
@@ -9048,13 +9051,13 @@
         <v>51</v>
       </c>
       <c r="E143" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F143">
         <v>1.69</v>
       </c>
       <c r="G143">
-        <v>2.39962245161148</v>
+        <v>2.39957266896506</v>
       </c>
       <c r="H143">
         <v>10.5</v>
@@ -9063,7 +9066,7 @@
         <v>6.246</v>
       </c>
       <c r="L143">
-        <v>0.8105</v>
+        <v>1.43</v>
       </c>
       <c r="M143">
         <v>4.2415</v>
@@ -9078,19 +9081,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q143" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R143" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S143" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T143" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U143" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="144" spans="1:21">
@@ -9107,13 +9110,13 @@
         <v>51</v>
       </c>
       <c r="E144" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F144">
         <v>1.69</v>
       </c>
       <c r="G144">
-        <v>2.39962245161148</v>
+        <v>2.39957266896506</v>
       </c>
       <c r="H144">
         <v>10.5</v>
@@ -9122,7 +9125,7 @@
         <v>6.246</v>
       </c>
       <c r="L144">
-        <v>0.8105</v>
+        <v>1.43</v>
       </c>
       <c r="M144">
         <v>4.2415</v>
@@ -9137,19 +9140,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q144" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R144" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S144" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T144" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U144" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="145" spans="1:21">
@@ -9163,7 +9166,7 @@
         <v>51</v>
       </c>
       <c r="E145" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F145">
         <v>2.725</v>
@@ -9178,7 +9181,7 @@
         <v>10.3735</v>
       </c>
       <c r="L145">
-        <v>2.475</v>
+        <v>2.655</v>
       </c>
       <c r="M145">
         <v>6.2909</v>
@@ -9193,19 +9196,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q145" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R145" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S145" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T145" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U145" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="146" spans="1:21">
@@ -9219,7 +9222,7 @@
         <v>51</v>
       </c>
       <c r="E146" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F146">
         <v>2.725</v>
@@ -9234,7 +9237,7 @@
         <v>10.3735</v>
       </c>
       <c r="L146">
-        <v>2.475</v>
+        <v>2.655</v>
       </c>
       <c r="M146">
         <v>6.2909</v>
@@ -9249,19 +9252,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q146" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R146" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S146" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T146" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U146" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="147" spans="1:21">
@@ -9275,7 +9278,7 @@
         <v>51</v>
       </c>
       <c r="E147" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F147">
         <v>5.99</v>
@@ -9290,7 +9293,7 @@
         <v>14.8</v>
       </c>
       <c r="L147">
-        <v>8.855</v>
+        <v>9.35</v>
       </c>
       <c r="M147">
         <v>10.788</v>
@@ -9305,19 +9308,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q147" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R147" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S147" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T147" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U147" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="148" spans="1:21">
@@ -9331,7 +9334,7 @@
         <v>51</v>
       </c>
       <c r="E148" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F148">
         <v>5.99</v>
@@ -9346,7 +9349,7 @@
         <v>14.8</v>
       </c>
       <c r="L148">
-        <v>8.855</v>
+        <v>9.35</v>
       </c>
       <c r="M148">
         <v>10.788</v>
@@ -9361,19 +9364,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q148" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R148" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S148" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T148" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U148" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="149" spans="1:21">
@@ -9387,7 +9390,7 @@
         <v>51</v>
       </c>
       <c r="E149" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F149">
         <v>1.43</v>
@@ -9402,7 +9405,7 @@
         <v>6.101</v>
       </c>
       <c r="L149">
-        <v>4.81</v>
+        <v>4.35</v>
       </c>
       <c r="M149">
         <v>5.227</v>
@@ -9417,19 +9420,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q149" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R149" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S149" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T149" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U149" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="150" spans="1:21">
@@ -9443,7 +9446,7 @@
         <v>51</v>
       </c>
       <c r="E150" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F150">
         <v>1.43</v>
@@ -9458,7 +9461,7 @@
         <v>6.101</v>
       </c>
       <c r="L150">
-        <v>4.81</v>
+        <v>4.35</v>
       </c>
       <c r="M150">
         <v>5.227</v>
@@ -9473,19 +9476,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q150" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R150" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S150" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T150" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U150" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="151" spans="1:21">
@@ -9502,7 +9505,7 @@
         <v>52</v>
       </c>
       <c r="E151" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F151">
         <v>1.1165</v>
@@ -9517,7 +9520,7 @@
         <v>4.644</v>
       </c>
       <c r="L151">
-        <v>3.29</v>
+        <v>3.095</v>
       </c>
       <c r="M151">
         <v>4.052</v>
@@ -9532,19 +9535,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q151" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R151" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S151" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T151" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U151" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="152" spans="1:21">
@@ -9561,7 +9564,7 @@
         <v>52</v>
       </c>
       <c r="E152" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F152">
         <v>1.1165</v>
@@ -9576,7 +9579,7 @@
         <v>4.644</v>
       </c>
       <c r="L152">
-        <v>3.29</v>
+        <v>3.095</v>
       </c>
       <c r="M152">
         <v>4.052</v>
@@ -9591,19 +9594,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q152" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S152" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T152" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U152" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="153" spans="1:21">
@@ -9620,16 +9623,16 @@
         <v>52</v>
       </c>
       <c r="E153" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F153">
         <v>550</v>
       </c>
       <c r="G153">
-        <v>1227.84404343683</v>
+        <v>1316.89175757333</v>
       </c>
       <c r="H153">
-        <v>11160.5774485463</v>
+        <v>16326.2270786144</v>
       </c>
       <c r="I153">
         <v>4080</v>
@@ -9641,7 +9644,7 @@
         <v>75.8620689655172</v>
       </c>
       <c r="L153">
-        <v>610</v>
+        <v>665</v>
       </c>
       <c r="M153">
         <v>2228</v>
@@ -9656,19 +9659,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q153" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R153" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S153" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T153" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U153" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="154" spans="1:21">
@@ -9685,16 +9688,16 @@
         <v>52</v>
       </c>
       <c r="E154" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F154">
         <v>550</v>
       </c>
       <c r="G154">
-        <v>1227.84404343683</v>
+        <v>1316.89175757333</v>
       </c>
       <c r="H154">
-        <v>11160.5774485463</v>
+        <v>16326.2270786144</v>
       </c>
       <c r="I154">
         <v>4080</v>
@@ -9706,7 +9709,7 @@
         <v>75.8620689655172</v>
       </c>
       <c r="L154">
-        <v>610</v>
+        <v>665</v>
       </c>
       <c r="M154">
         <v>2228</v>
@@ -9721,19 +9724,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q154" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R154" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S154" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T154" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U154" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="155" spans="1:21">
@@ -9750,16 +9753,16 @@
         <v>52</v>
       </c>
       <c r="E155" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F155">
         <v>550</v>
       </c>
       <c r="G155">
-        <v>1227.84404343683</v>
+        <v>1316.89175757333</v>
       </c>
       <c r="H155">
-        <v>11160.5774485463</v>
+        <v>16326.2270786144</v>
       </c>
       <c r="I155">
         <v>4080</v>
@@ -9771,7 +9774,7 @@
         <v>75.8620689655172</v>
       </c>
       <c r="L155">
-        <v>610</v>
+        <v>665</v>
       </c>
       <c r="M155">
         <v>2228</v>
@@ -9786,19 +9789,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q155" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R155" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S155" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T155" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U155" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="156" spans="1:21">
@@ -9815,16 +9818,16 @@
         <v>52</v>
       </c>
       <c r="E156" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F156">
         <v>550</v>
       </c>
       <c r="G156">
-        <v>1227.84404343683</v>
+        <v>1316.89175757333</v>
       </c>
       <c r="H156">
-        <v>11160.5774485463</v>
+        <v>16326.2270786144</v>
       </c>
       <c r="I156">
         <v>4080</v>
@@ -9836,7 +9839,7 @@
         <v>75.8620689655172</v>
       </c>
       <c r="L156">
-        <v>610</v>
+        <v>665</v>
       </c>
       <c r="M156">
         <v>2228</v>
@@ -9851,19 +9854,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q156" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R156" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S156" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T156" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U156" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="157" spans="1:21">
@@ -9880,13 +9883,13 @@
         <v>52</v>
       </c>
       <c r="E157" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F157">
         <v>0.35988</v>
       </c>
       <c r="G157">
-        <v>1.1541599192152</v>
+        <v>1.15416976294446</v>
       </c>
       <c r="H157">
         <v>14.8809266683637</v>
@@ -9895,7 +9898,7 @@
         <v>4.24618</v>
       </c>
       <c r="L157">
-        <v>0.62932</v>
+        <v>0.5295800000000001</v>
       </c>
       <c r="M157">
         <v>2.17676</v>
@@ -9910,19 +9913,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q157" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R157" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S157" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T157" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U157" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="158" spans="1:21">
@@ -9939,13 +9942,13 @@
         <v>52</v>
       </c>
       <c r="E158" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F158">
         <v>0.35988</v>
       </c>
       <c r="G158">
-        <v>1.1541599192152</v>
+        <v>1.15416976294446</v>
       </c>
       <c r="H158">
         <v>14.8809266683637</v>
@@ -9954,7 +9957,7 @@
         <v>4.24618</v>
       </c>
       <c r="L158">
-        <v>0.62932</v>
+        <v>0.5295800000000001</v>
       </c>
       <c r="M158">
         <v>2.17676</v>
@@ -9969,19 +9972,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q158" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R158" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S158" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T158" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U158" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="159" spans="1:21">
@@ -9998,13 +10001,13 @@
         <v>52</v>
       </c>
       <c r="E159" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F159">
         <v>1.615</v>
       </c>
       <c r="G159">
-        <v>2.17423663181168</v>
+        <v>2.17418599084377</v>
       </c>
       <c r="H159">
         <v>10.5</v>
@@ -10013,7 +10016,7 @@
         <v>5.872</v>
       </c>
       <c r="L159">
-        <v>0.758</v>
+        <v>1.29</v>
       </c>
       <c r="M159">
         <v>3.5128</v>
@@ -10028,19 +10031,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q159" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R159" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S159" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T159" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U159" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="160" spans="1:21">
@@ -10057,13 +10060,13 @@
         <v>52</v>
       </c>
       <c r="E160" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F160">
         <v>1.615</v>
       </c>
       <c r="G160">
-        <v>2.17423663181168</v>
+        <v>2.17418599084377</v>
       </c>
       <c r="H160">
         <v>10.5</v>
@@ -10072,7 +10075,7 @@
         <v>5.872</v>
       </c>
       <c r="L160">
-        <v>0.758</v>
+        <v>1.29</v>
       </c>
       <c r="M160">
         <v>3.5128</v>
@@ -10087,19 +10090,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q160" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R160" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S160" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T160" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U160" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="161" spans="1:21">
@@ -10113,7 +10116,7 @@
         <v>52</v>
       </c>
       <c r="E161" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F161">
         <v>2.736</v>
@@ -10128,7 +10131,7 @@
         <v>11.398</v>
       </c>
       <c r="L161">
-        <v>2.47</v>
+        <v>2.6825</v>
       </c>
       <c r="M161">
         <v>6.5976</v>
@@ -10143,19 +10146,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q161" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R161" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S161" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T161" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U161" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="162" spans="1:21">
@@ -10169,7 +10172,7 @@
         <v>52</v>
       </c>
       <c r="E162" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F162">
         <v>2.736</v>
@@ -10184,7 +10187,7 @@
         <v>11.398</v>
       </c>
       <c r="L162">
-        <v>2.47</v>
+        <v>2.6825</v>
       </c>
       <c r="M162">
         <v>6.5976</v>
@@ -10199,19 +10202,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q162" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R162" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S162" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T162" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U162" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="163" spans="1:21">
@@ -10225,7 +10228,7 @@
         <v>52</v>
       </c>
       <c r="E163" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F163">
         <v>6.37</v>
@@ -10240,7 +10243,7 @@
         <v>16</v>
       </c>
       <c r="L163">
-        <v>9.050000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="M163">
         <v>10.856</v>
@@ -10255,19 +10258,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q163" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R163" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S163" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T163" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U163" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="164" spans="1:21">
@@ -10281,7 +10284,7 @@
         <v>52</v>
       </c>
       <c r="E164" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F164">
         <v>6.37</v>
@@ -10296,7 +10299,7 @@
         <v>16</v>
       </c>
       <c r="L164">
-        <v>9.050000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="M164">
         <v>10.856</v>
@@ -10311,19 +10314,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q164" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R164" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S164" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T164" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U164" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="165" spans="1:21">
@@ -10337,7 +10340,7 @@
         <v>52</v>
       </c>
       <c r="E165" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F165">
         <v>1.705</v>
@@ -10352,7 +10355,7 @@
         <v>6.102</v>
       </c>
       <c r="L165">
-        <v>4.44</v>
+        <v>4.15</v>
       </c>
       <c r="M165">
         <v>5.0856</v>
@@ -10367,19 +10370,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q165" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R165" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S165" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T165" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U165" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="166" spans="1:21">
@@ -10393,7 +10396,7 @@
         <v>52</v>
       </c>
       <c r="E166" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F166">
         <v>1.705</v>
@@ -10408,7 +10411,7 @@
         <v>6.102</v>
       </c>
       <c r="L166">
-        <v>4.44</v>
+        <v>4.15</v>
       </c>
       <c r="M166">
         <v>5.0856</v>
@@ -10423,19 +10426,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q166" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R166" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U166" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="167" spans="1:21">
@@ -10452,7 +10455,7 @@
         <v>53</v>
       </c>
       <c r="E167" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F167">
         <v>0.9615</v>
@@ -10467,7 +10470,7 @@
         <v>4.498</v>
       </c>
       <c r="L167">
-        <v>2.34</v>
+        <v>2.415</v>
       </c>
       <c r="M167">
         <v>3.9516</v>
@@ -10482,19 +10485,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q167" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R167" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U167" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="168" spans="1:21">
@@ -10511,7 +10514,7 @@
         <v>53</v>
       </c>
       <c r="E168" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F168">
         <v>0.9615</v>
@@ -10526,7 +10529,7 @@
         <v>4.498</v>
       </c>
       <c r="L168">
-        <v>2.34</v>
+        <v>2.415</v>
       </c>
       <c r="M168">
         <v>3.9516</v>
@@ -10541,19 +10544,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q168" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R168" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S168" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T168" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U168" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="169" spans="1:21">
@@ -10570,16 +10573,16 @@
         <v>53</v>
       </c>
       <c r="E169" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F169">
         <v>490</v>
       </c>
       <c r="G169">
-        <v>1154.72335378166</v>
+        <v>1243.77451619402</v>
       </c>
       <c r="H169">
-        <v>11160.5774485463</v>
+        <v>16326.2270786144</v>
       </c>
       <c r="I169">
         <v>4080</v>
@@ -10591,13 +10594,13 @@
         <v>72.4137931034483</v>
       </c>
       <c r="L169">
-        <v>899</v>
+        <v>794</v>
       </c>
       <c r="M169">
-        <v>1726.24</v>
+        <v>1726.112</v>
       </c>
       <c r="N169">
-        <v>3601.38</v>
+        <v>3601.552</v>
       </c>
       <c r="O169">
         <v>1803578.705</v>
@@ -10606,19 +10609,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q169" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R169" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S169" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T169" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U169" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="170" spans="1:21">
@@ -10635,16 +10638,16 @@
         <v>53</v>
       </c>
       <c r="E170" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F170">
         <v>490</v>
       </c>
       <c r="G170">
-        <v>1154.72335378166</v>
+        <v>1243.77451619402</v>
       </c>
       <c r="H170">
-        <v>11160.5774485463</v>
+        <v>16326.2270786144</v>
       </c>
       <c r="I170">
         <v>4080</v>
@@ -10656,13 +10659,13 @@
         <v>72.4137931034483</v>
       </c>
       <c r="L170">
-        <v>899</v>
+        <v>794</v>
       </c>
       <c r="M170">
-        <v>1726.24</v>
+        <v>1726.112</v>
       </c>
       <c r="N170">
-        <v>3601.38</v>
+        <v>3601.552</v>
       </c>
       <c r="O170">
         <v>1803578.705</v>
@@ -10671,19 +10674,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q170" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R170" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S170" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T170" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U170" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="171" spans="1:21">
@@ -10700,16 +10703,16 @@
         <v>53</v>
       </c>
       <c r="E171" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F171">
         <v>490</v>
       </c>
       <c r="G171">
-        <v>1154.72335378166</v>
+        <v>1243.77451619402</v>
       </c>
       <c r="H171">
-        <v>11160.5774485463</v>
+        <v>16326.2270786144</v>
       </c>
       <c r="I171">
         <v>4080</v>
@@ -10721,13 +10724,13 @@
         <v>72.4137931034483</v>
       </c>
       <c r="L171">
-        <v>899</v>
+        <v>794</v>
       </c>
       <c r="M171">
-        <v>1726.24</v>
+        <v>1726.112</v>
       </c>
       <c r="N171">
-        <v>3601.38</v>
+        <v>3601.552</v>
       </c>
       <c r="O171">
         <v>1803578.705</v>
@@ -10736,19 +10739,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q171" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R171" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S171" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T171" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U171" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="172" spans="1:21">
@@ -10765,16 +10768,16 @@
         <v>53</v>
       </c>
       <c r="E172" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F172">
         <v>490</v>
       </c>
       <c r="G172">
-        <v>1154.72335378166</v>
+        <v>1243.77451619402</v>
       </c>
       <c r="H172">
-        <v>11160.5774485463</v>
+        <v>16326.2270786144</v>
       </c>
       <c r="I172">
         <v>4080</v>
@@ -10786,13 +10789,13 @@
         <v>72.4137931034483</v>
       </c>
       <c r="L172">
-        <v>899</v>
+        <v>794</v>
       </c>
       <c r="M172">
-        <v>1726.24</v>
+        <v>1726.112</v>
       </c>
       <c r="N172">
-        <v>3601.38</v>
+        <v>3601.552</v>
       </c>
       <c r="O172">
         <v>1803578.705</v>
@@ -10801,19 +10804,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q172" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R172" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S172" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T172" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U172" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="173" spans="1:21">
@@ -10830,13 +10833,13 @@
         <v>53</v>
       </c>
       <c r="E173" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F173">
         <v>0.34953</v>
       </c>
       <c r="G173">
-        <v>0.846009912745724</v>
+        <v>0.8460195707442369</v>
       </c>
       <c r="H173">
         <v>5.62710303552482</v>
@@ -10860,19 +10863,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q173" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R173" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S173" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T173" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U173" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="174" spans="1:21">
@@ -10889,13 +10892,13 @@
         <v>53</v>
       </c>
       <c r="E174" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F174">
         <v>0.34953</v>
       </c>
       <c r="G174">
-        <v>0.846009912745724</v>
+        <v>0.8460195707442369</v>
       </c>
       <c r="H174">
         <v>5.62710303552482</v>
@@ -10919,19 +10922,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q174" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R174" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S174" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T174" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U174" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="175" spans="1:21">
@@ -10948,13 +10951,13 @@
         <v>53</v>
       </c>
       <c r="E175" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F175">
         <v>1.34</v>
       </c>
       <c r="G175">
-        <v>1.80206421801858</v>
+        <v>1.80201357705066</v>
       </c>
       <c r="H175">
         <v>7.11</v>
@@ -10963,7 +10966,7 @@
         <v>5.652</v>
       </c>
       <c r="L175">
-        <v>0.497</v>
+        <v>0.8845</v>
       </c>
       <c r="M175">
         <v>3.1296</v>
@@ -10978,19 +10981,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q175" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R175" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S175" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T175" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U175" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="176" spans="1:21">
@@ -11007,13 +11010,13 @@
         <v>53</v>
       </c>
       <c r="E176" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F176">
         <v>1.34</v>
       </c>
       <c r="G176">
-        <v>1.80206421801858</v>
+        <v>1.80201357705066</v>
       </c>
       <c r="H176">
         <v>7.11</v>
@@ -11022,7 +11025,7 @@
         <v>5.652</v>
       </c>
       <c r="L176">
-        <v>0.497</v>
+        <v>0.8845</v>
       </c>
       <c r="M176">
         <v>3.1296</v>
@@ -11037,19 +11040,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q176" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R176" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S176" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T176" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U176" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="177" spans="1:21">
@@ -11063,7 +11066,7 @@
         <v>53</v>
       </c>
       <c r="E177" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F177">
         <v>2.475</v>
@@ -11078,7 +11081,7 @@
         <v>9.92</v>
       </c>
       <c r="L177">
-        <v>1.688</v>
+        <v>1.9905</v>
       </c>
       <c r="M177">
         <v>5.85572</v>
@@ -11093,19 +11096,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q177" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R177" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S177" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T177" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U177" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="178" spans="1:21">
@@ -11119,7 +11122,7 @@
         <v>53</v>
       </c>
       <c r="E178" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F178">
         <v>2.475</v>
@@ -11134,7 +11137,7 @@
         <v>9.92</v>
       </c>
       <c r="L178">
-        <v>1.688</v>
+        <v>1.9905</v>
       </c>
       <c r="M178">
         <v>5.85572</v>
@@ -11149,19 +11152,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q178" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R178" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S178" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T178" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U178" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="179" spans="1:21">
@@ -11175,7 +11178,7 @@
         <v>53</v>
       </c>
       <c r="E179" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F179">
         <v>5.53</v>
@@ -11190,7 +11193,7 @@
         <v>14.9</v>
       </c>
       <c r="L179">
-        <v>6.75</v>
+        <v>9.59</v>
       </c>
       <c r="M179">
         <v>10.564</v>
@@ -11205,19 +11208,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q179" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R179" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S179" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T179" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U179" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="180" spans="1:21">
@@ -11231,7 +11234,7 @@
         <v>53</v>
       </c>
       <c r="E180" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F180">
         <v>5.53</v>
@@ -11246,7 +11249,7 @@
         <v>14.9</v>
       </c>
       <c r="L180">
-        <v>6.75</v>
+        <v>9.59</v>
       </c>
       <c r="M180">
         <v>10.564</v>
@@ -11261,19 +11264,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q180" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R180" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S180" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T180" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U180" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="181" spans="1:21">
@@ -11287,7 +11290,7 @@
         <v>53</v>
       </c>
       <c r="E181" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F181">
         <v>1.24</v>
@@ -11302,7 +11305,7 @@
         <v>6.102</v>
       </c>
       <c r="L181">
-        <v>3.53</v>
+        <v>3.445</v>
       </c>
       <c r="M181">
         <v>4.9112</v>
@@ -11317,19 +11320,19 @@
         <v>5557699.998</v>
       </c>
       <c r="Q181" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R181" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U181" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="182" spans="1:21">
@@ -11343,7 +11346,7 @@
         <v>53</v>
       </c>
       <c r="E182" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F182">
         <v>1.24</v>
@@ -11358,7 +11361,7 @@
         <v>6.102</v>
       </c>
       <c r="L182">
-        <v>3.53</v>
+        <v>3.445</v>
       </c>
       <c r="M182">
         <v>4.9112</v>
@@ -11373,19 +11376,969 @@
         <v>5557699.998</v>
       </c>
       <c r="Q182" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R182" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S182" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T182" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U182" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21">
+      <c r="A183" t="s">
+        <v>21</v>
+      </c>
+      <c r="B183" t="s">
+        <v>23</v>
+      </c>
+      <c r="C183" t="s">
+        <v>40</v>
+      </c>
+      <c r="D183" t="s">
+        <v>54</v>
+      </c>
+      <c r="E183" t="s">
+        <v>55</v>
+      </c>
+      <c r="F183">
+        <v>0.9615</v>
+      </c>
+      <c r="G183">
+        <v>1.59918965517241</v>
+      </c>
+      <c r="H183">
+        <v>5.37</v>
+      </c>
+      <c r="I183">
+        <v>4.176</v>
+      </c>
+      <c r="L183">
+        <v>2.285</v>
+      </c>
+      <c r="M183">
+        <v>3.7148</v>
+      </c>
+      <c r="N183">
+        <v>4.1416</v>
+      </c>
+      <c r="O183">
+        <v>1803578.705</v>
+      </c>
+      <c r="P183">
+        <v>5557699.998</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>56</v>
+      </c>
+      <c r="R183" t="s">
+        <v>57</v>
+      </c>
+      <c r="S183" t="s">
+        <v>58</v>
+      </c>
+      <c r="T183" t="s">
+        <v>59</v>
+      </c>
+      <c r="U183" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21">
+      <c r="A184" t="s">
+        <v>21</v>
+      </c>
+      <c r="B184" t="s">
+        <v>24</v>
+      </c>
+      <c r="C184" t="s">
+        <v>40</v>
+      </c>
+      <c r="D184" t="s">
+        <v>54</v>
+      </c>
+      <c r="E184" t="s">
+        <v>55</v>
+      </c>
+      <c r="F184">
+        <v>0.9615</v>
+      </c>
+      <c r="G184">
+        <v>1.59918965517241</v>
+      </c>
+      <c r="H184">
+        <v>5.37</v>
+      </c>
+      <c r="I184">
+        <v>4.176</v>
+      </c>
+      <c r="L184">
+        <v>2.285</v>
+      </c>
+      <c r="M184">
+        <v>3.7148</v>
+      </c>
+      <c r="N184">
+        <v>4.1416</v>
+      </c>
+      <c r="O184">
+        <v>1803578.705</v>
+      </c>
+      <c r="P184">
+        <v>5557699.998</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>56</v>
+      </c>
+      <c r="R184" t="s">
+        <v>57</v>
+      </c>
+      <c r="S184" t="s">
+        <v>58</v>
+      </c>
+      <c r="T184" t="s">
+        <v>59</v>
+      </c>
+      <c r="U184" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21">
+      <c r="A185" t="s">
+        <v>21</v>
+      </c>
+      <c r="B185" t="s">
+        <v>25</v>
+      </c>
+      <c r="C185" t="s">
+        <v>41</v>
+      </c>
+      <c r="D185" t="s">
+        <v>54</v>
+      </c>
+      <c r="E185" t="s">
+        <v>55</v>
+      </c>
+      <c r="F185">
+        <v>453.8</v>
+      </c>
+      <c r="G185">
+        <v>1358.08486102161</v>
+      </c>
+      <c r="H185">
+        <v>16326.2270786144</v>
+      </c>
+      <c r="I185">
+        <v>3813.28</v>
+      </c>
+      <c r="J185">
+        <v>43.1034482758621</v>
+      </c>
+      <c r="K185">
+        <v>68.9655172413793</v>
+      </c>
+      <c r="L185">
+        <v>602.8</v>
+      </c>
+      <c r="M185">
+        <v>1970.688</v>
+      </c>
+      <c r="N185">
+        <v>3629</v>
+      </c>
+      <c r="O185">
+        <v>1803578.705</v>
+      </c>
+      <c r="P185">
+        <v>5557699.998</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>56</v>
+      </c>
+      <c r="R185" t="s">
+        <v>57</v>
+      </c>
+      <c r="S185" t="s">
+        <v>58</v>
+      </c>
+      <c r="T185" t="s">
+        <v>59</v>
+      </c>
+      <c r="U185" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21">
+      <c r="A186" t="s">
+        <v>21</v>
+      </c>
+      <c r="B186" t="s">
+        <v>26</v>
+      </c>
+      <c r="C186" t="s">
+        <v>41</v>
+      </c>
+      <c r="D186" t="s">
+        <v>54</v>
+      </c>
+      <c r="E186" t="s">
+        <v>55</v>
+      </c>
+      <c r="F186">
+        <v>453.8</v>
+      </c>
+      <c r="G186">
+        <v>1358.08486102161</v>
+      </c>
+      <c r="H186">
+        <v>16326.2270786144</v>
+      </c>
+      <c r="I186">
+        <v>3813.28</v>
+      </c>
+      <c r="J186">
+        <v>43.1034482758621</v>
+      </c>
+      <c r="K186">
+        <v>68.9655172413793</v>
+      </c>
+      <c r="L186">
+        <v>602.8</v>
+      </c>
+      <c r="M186">
+        <v>1970.688</v>
+      </c>
+      <c r="N186">
+        <v>3629</v>
+      </c>
+      <c r="O186">
+        <v>1803578.705</v>
+      </c>
+      <c r="P186">
+        <v>5557699.998</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>56</v>
+      </c>
+      <c r="R186" t="s">
+        <v>57</v>
+      </c>
+      <c r="S186" t="s">
+        <v>58</v>
+      </c>
+      <c r="T186" t="s">
+        <v>59</v>
+      </c>
+      <c r="U186" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21">
+      <c r="A187" t="s">
+        <v>21</v>
+      </c>
+      <c r="B187" t="s">
+        <v>27</v>
+      </c>
+      <c r="C187" t="s">
+        <v>41</v>
+      </c>
+      <c r="D187" t="s">
+        <v>54</v>
+      </c>
+      <c r="E187" t="s">
+        <v>55</v>
+      </c>
+      <c r="F187">
+        <v>453.8</v>
+      </c>
+      <c r="G187">
+        <v>1358.08486102161</v>
+      </c>
+      <c r="H187">
+        <v>16326.2270786144</v>
+      </c>
+      <c r="I187">
+        <v>3813.28</v>
+      </c>
+      <c r="J187">
+        <v>43.1034482758621</v>
+      </c>
+      <c r="K187">
+        <v>68.9655172413793</v>
+      </c>
+      <c r="L187">
+        <v>602.8</v>
+      </c>
+      <c r="M187">
+        <v>1970.688</v>
+      </c>
+      <c r="N187">
+        <v>3629</v>
+      </c>
+      <c r="O187">
+        <v>1803578.705</v>
+      </c>
+      <c r="P187">
+        <v>5557699.998</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>56</v>
+      </c>
+      <c r="R187" t="s">
+        <v>57</v>
+      </c>
+      <c r="S187" t="s">
+        <v>58</v>
+      </c>
+      <c r="T187" t="s">
+        <v>59</v>
+      </c>
+      <c r="U187" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21">
+      <c r="A188" t="s">
+        <v>21</v>
+      </c>
+      <c r="B188" t="s">
+        <v>28</v>
+      </c>
+      <c r="C188" t="s">
+        <v>41</v>
+      </c>
+      <c r="D188" t="s">
+        <v>54</v>
+      </c>
+      <c r="E188" t="s">
+        <v>55</v>
+      </c>
+      <c r="F188">
+        <v>453.8</v>
+      </c>
+      <c r="G188">
+        <v>1358.08486102161</v>
+      </c>
+      <c r="H188">
+        <v>16326.2270786144</v>
+      </c>
+      <c r="I188">
+        <v>3813.28</v>
+      </c>
+      <c r="J188">
+        <v>43.1034482758621</v>
+      </c>
+      <c r="K188">
+        <v>68.9655172413793</v>
+      </c>
+      <c r="L188">
+        <v>602.8</v>
+      </c>
+      <c r="M188">
+        <v>1970.688</v>
+      </c>
+      <c r="N188">
+        <v>3629</v>
+      </c>
+      <c r="O188">
+        <v>1803578.705</v>
+      </c>
+      <c r="P188">
+        <v>5557699.998</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>56</v>
+      </c>
+      <c r="R188" t="s">
+        <v>57</v>
+      </c>
+      <c r="S188" t="s">
+        <v>58</v>
+      </c>
+      <c r="T188" t="s">
+        <v>59</v>
+      </c>
+      <c r="U188" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21">
+      <c r="A189" t="s">
+        <v>21</v>
+      </c>
+      <c r="B189" t="s">
+        <v>29</v>
+      </c>
+      <c r="C189" t="s">
+        <v>40</v>
+      </c>
+      <c r="D189" t="s">
+        <v>54</v>
+      </c>
+      <c r="E189" t="s">
+        <v>55</v>
+      </c>
+      <c r="F189">
+        <v>0.37739</v>
+      </c>
+      <c r="G189">
+        <v>1.13265011772624</v>
+      </c>
+      <c r="H189">
+        <v>9.041138150431729</v>
+      </c>
+      <c r="I189">
+        <v>5.56199</v>
+      </c>
+      <c r="L189">
+        <v>0.30387</v>
+      </c>
+      <c r="M189">
+        <v>1.78863</v>
+      </c>
+      <c r="N189">
+        <v>3.95913</v>
+      </c>
+      <c r="O189">
+        <v>1803578.705</v>
+      </c>
+      <c r="P189">
+        <v>5557699.998</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>56</v>
+      </c>
+      <c r="R189" t="s">
+        <v>57</v>
+      </c>
+      <c r="S189" t="s">
+        <v>58</v>
+      </c>
+      <c r="T189" t="s">
+        <v>59</v>
+      </c>
+      <c r="U189" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21">
+      <c r="A190" t="s">
+        <v>21</v>
+      </c>
+      <c r="B190" t="s">
+        <v>30</v>
+      </c>
+      <c r="C190" t="s">
+        <v>42</v>
+      </c>
+      <c r="D190" t="s">
+        <v>54</v>
+      </c>
+      <c r="E190" t="s">
+        <v>55</v>
+      </c>
+      <c r="F190">
+        <v>0.37739</v>
+      </c>
+      <c r="G190">
+        <v>1.13265011772624</v>
+      </c>
+      <c r="H190">
+        <v>9.041138150431729</v>
+      </c>
+      <c r="I190">
+        <v>5.56199</v>
+      </c>
+      <c r="L190">
+        <v>0.30387</v>
+      </c>
+      <c r="M190">
+        <v>1.78863</v>
+      </c>
+      <c r="N190">
+        <v>3.95913</v>
+      </c>
+      <c r="O190">
+        <v>1803578.705</v>
+      </c>
+      <c r="P190">
+        <v>5557699.998</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>56</v>
+      </c>
+      <c r="R190" t="s">
+        <v>57</v>
+      </c>
+      <c r="S190" t="s">
+        <v>58</v>
+      </c>
+      <c r="T190" t="s">
+        <v>59</v>
+      </c>
+      <c r="U190" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21">
+      <c r="A191" t="s">
+        <v>21</v>
+      </c>
+      <c r="B191" t="s">
+        <v>31</v>
+      </c>
+      <c r="C191" t="s">
+        <v>42</v>
+      </c>
+      <c r="D191" t="s">
+        <v>54</v>
+      </c>
+      <c r="E191" t="s">
+        <v>55</v>
+      </c>
+      <c r="F191">
+        <v>1.29</v>
+      </c>
+      <c r="G191">
+        <v>1.52311702532653</v>
+      </c>
+      <c r="H191">
+        <v>5.74</v>
+      </c>
+      <c r="I191">
+        <v>5.112</v>
+      </c>
+      <c r="L191">
+        <v>0.8845</v>
+      </c>
+      <c r="M191">
+        <v>2.1296</v>
+      </c>
+      <c r="N191">
+        <v>3.6834</v>
+      </c>
+      <c r="O191">
+        <v>1803578.705</v>
+      </c>
+      <c r="P191">
+        <v>5557699.998</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>56</v>
+      </c>
+      <c r="R191" t="s">
+        <v>57</v>
+      </c>
+      <c r="S191" t="s">
+        <v>58</v>
+      </c>
+      <c r="T191" t="s">
+        <v>59</v>
+      </c>
+      <c r="U191" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21">
+      <c r="A192" t="s">
+        <v>21</v>
+      </c>
+      <c r="B192" t="s">
+        <v>32</v>
+      </c>
+      <c r="C192" t="s">
+        <v>39</v>
+      </c>
+      <c r="D192" t="s">
+        <v>54</v>
+      </c>
+      <c r="E192" t="s">
+        <v>55</v>
+      </c>
+      <c r="F192">
+        <v>1.29</v>
+      </c>
+      <c r="G192">
+        <v>1.52311702532653</v>
+      </c>
+      <c r="H192">
+        <v>5.74</v>
+      </c>
+      <c r="I192">
+        <v>5.112</v>
+      </c>
+      <c r="L192">
+        <v>0.8845</v>
+      </c>
+      <c r="M192">
+        <v>2.1296</v>
+      </c>
+      <c r="N192">
+        <v>3.6834</v>
+      </c>
+      <c r="O192">
+        <v>1803578.705</v>
+      </c>
+      <c r="P192">
+        <v>5557699.998</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>56</v>
+      </c>
+      <c r="R192" t="s">
+        <v>57</v>
+      </c>
+      <c r="S192" t="s">
+        <v>58</v>
+      </c>
+      <c r="T192" t="s">
+        <v>59</v>
+      </c>
+      <c r="U192" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21">
+      <c r="A193" t="s">
+        <v>21</v>
+      </c>
+      <c r="B193" t="s">
+        <v>33</v>
+      </c>
+      <c r="D193" t="s">
+        <v>54</v>
+      </c>
+      <c r="E193" t="s">
+        <v>55</v>
+      </c>
+      <c r="F193">
+        <v>2.6275</v>
+      </c>
+      <c r="G193">
+        <v>3.80279310344828</v>
+      </c>
+      <c r="H193">
+        <v>17.04</v>
+      </c>
+      <c r="I193">
+        <v>12.81</v>
+      </c>
+      <c r="L193">
+        <v>2.1345</v>
+      </c>
+      <c r="M193">
+        <v>5.85572</v>
+      </c>
+      <c r="N193">
+        <v>10.44</v>
+      </c>
+      <c r="O193">
+        <v>1803578.705</v>
+      </c>
+      <c r="P193">
+        <v>5557699.998</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>56</v>
+      </c>
+      <c r="R193" t="s">
+        <v>57</v>
+      </c>
+      <c r="S193" t="s">
+        <v>58</v>
+      </c>
+      <c r="T193" t="s">
+        <v>59</v>
+      </c>
+      <c r="U193" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21">
+      <c r="A194" t="s">
+        <v>21</v>
+      </c>
+      <c r="B194" t="s">
+        <v>34</v>
+      </c>
+      <c r="D194" t="s">
+        <v>54</v>
+      </c>
+      <c r="E194" t="s">
+        <v>55</v>
+      </c>
+      <c r="F194">
+        <v>2.6275</v>
+      </c>
+      <c r="G194">
+        <v>3.80279310344828</v>
+      </c>
+      <c r="H194">
+        <v>17.04</v>
+      </c>
+      <c r="I194">
+        <v>12.81</v>
+      </c>
+      <c r="L194">
+        <v>2.1345</v>
+      </c>
+      <c r="M194">
+        <v>5.85572</v>
+      </c>
+      <c r="N194">
+        <v>10.44</v>
+      </c>
+      <c r="O194">
+        <v>1803578.705</v>
+      </c>
+      <c r="P194">
+        <v>5557699.998</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>56</v>
+      </c>
+      <c r="R194" t="s">
+        <v>57</v>
+      </c>
+      <c r="S194" t="s">
+        <v>58</v>
+      </c>
+      <c r="T194" t="s">
+        <v>59</v>
+      </c>
+      <c r="U194" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21">
+      <c r="A195" t="s">
+        <v>21</v>
+      </c>
+      <c r="B195" t="s">
+        <v>35</v>
+      </c>
+      <c r="D195" t="s">
+        <v>54</v>
+      </c>
+      <c r="E195" t="s">
+        <v>55</v>
+      </c>
+      <c r="F195">
+        <v>5.475</v>
+      </c>
+      <c r="G195">
+        <v>7.43568965517241</v>
+      </c>
+      <c r="H195">
+        <v>26</v>
+      </c>
+      <c r="I195">
+        <v>21.26</v>
+      </c>
+      <c r="L195">
+        <v>9.914999999999999</v>
+      </c>
+      <c r="M195">
+        <v>11.956</v>
+      </c>
+      <c r="N195">
+        <v>16.13</v>
+      </c>
+      <c r="O195">
+        <v>1803578.705</v>
+      </c>
+      <c r="P195">
+        <v>5557699.998</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>56</v>
+      </c>
+      <c r="R195" t="s">
+        <v>57</v>
+      </c>
+      <c r="S195" t="s">
+        <v>58</v>
+      </c>
+      <c r="T195" t="s">
+        <v>59</v>
+      </c>
+      <c r="U195" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21">
+      <c r="A196" t="s">
+        <v>21</v>
+      </c>
+      <c r="B196" t="s">
+        <v>36</v>
+      </c>
+      <c r="D196" t="s">
+        <v>54</v>
+      </c>
+      <c r="E196" t="s">
+        <v>55</v>
+      </c>
+      <c r="F196">
+        <v>5.475</v>
+      </c>
+      <c r="G196">
+        <v>7.43568965517241</v>
+      </c>
+      <c r="H196">
+        <v>26</v>
+      </c>
+      <c r="I196">
+        <v>21.26</v>
+      </c>
+      <c r="L196">
+        <v>9.914999999999999</v>
+      </c>
+      <c r="M196">
+        <v>11.956</v>
+      </c>
+      <c r="N196">
+        <v>16.13</v>
+      </c>
+      <c r="O196">
+        <v>1803578.705</v>
+      </c>
+      <c r="P196">
+        <v>5557699.998</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>56</v>
+      </c>
+      <c r="R196" t="s">
+        <v>57</v>
+      </c>
+      <c r="S196" t="s">
+        <v>58</v>
+      </c>
+      <c r="T196" t="s">
+        <v>59</v>
+      </c>
+      <c r="U196" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21">
+      <c r="A197" t="s">
+        <v>21</v>
+      </c>
+      <c r="B197" t="s">
+        <v>37</v>
+      </c>
+      <c r="D197" t="s">
+        <v>54</v>
+      </c>
+      <c r="E197" t="s">
+        <v>55</v>
+      </c>
+      <c r="F197">
+        <v>1.24</v>
+      </c>
+      <c r="G197">
+        <v>2.23148275862069</v>
+      </c>
+      <c r="H197">
+        <v>7.15</v>
+      </c>
+      <c r="I197">
+        <v>5.892</v>
+      </c>
+      <c r="L197">
+        <v>3.42</v>
+      </c>
+      <c r="M197">
+        <v>4.682</v>
+      </c>
+      <c r="N197">
+        <v>5.4244</v>
+      </c>
+      <c r="O197">
+        <v>1803578.705</v>
+      </c>
+      <c r="P197">
+        <v>5557699.998</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>56</v>
+      </c>
+      <c r="R197" t="s">
+        <v>57</v>
+      </c>
+      <c r="S197" t="s">
+        <v>58</v>
+      </c>
+      <c r="T197" t="s">
+        <v>59</v>
+      </c>
+      <c r="U197" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21">
+      <c r="A198" t="s">
+        <v>21</v>
+      </c>
+      <c r="B198" t="s">
+        <v>38</v>
+      </c>
+      <c r="D198" t="s">
+        <v>54</v>
+      </c>
+      <c r="E198" t="s">
+        <v>55</v>
+      </c>
+      <c r="F198">
+        <v>1.24</v>
+      </c>
+      <c r="G198">
+        <v>2.23148275862069</v>
+      </c>
+      <c r="H198">
+        <v>7.15</v>
+      </c>
+      <c r="I198">
+        <v>5.892</v>
+      </c>
+      <c r="L198">
+        <v>3.42</v>
+      </c>
+      <c r="M198">
+        <v>4.682</v>
+      </c>
+      <c r="N198">
+        <v>5.4244</v>
+      </c>
+      <c r="O198">
+        <v>1803578.705</v>
+      </c>
+      <c r="P198">
+        <v>5557699.998</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>56</v>
+      </c>
+      <c r="R198" t="s">
+        <v>57</v>
+      </c>
+      <c r="S198" t="s">
+        <v>58</v>
+      </c>
+      <c r="T198" t="s">
+        <v>59</v>
+      </c>
+      <c r="U198" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
